--- a/SizeDetect/new_datasets/train/size_data.xlsx
+++ b/SizeDetect/new_datasets/train/size_data.xlsx
@@ -370,15 +370,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,211 +395,223 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>313.02555806195761</v>
+        <v>257.07002936943081</v>
       </c>
       <c r="B2">
-        <v>187.5526592720029</v>
+        <v>142.3376267892647</v>
       </c>
       <c r="C2">
-        <v>153.87332452377831</v>
+        <v>130.1729618622854</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>311.7081968765018</v>
+        <v>257.07002936943081</v>
       </c>
       <c r="B3">
-        <v>170.88007490635059</v>
+        <v>142.3376267892647</v>
       </c>
       <c r="C3">
-        <v>170.13524032369071</v>
+        <v>130.1729618622854</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>310.75713990188552</v>
+        <v>259.27784324928348</v>
       </c>
       <c r="B4">
-        <v>191.0628168953865</v>
+        <v>157.28000508646991</v>
       </c>
       <c r="C4">
-        <v>149.68299836654799</v>
+        <v>140.0642709615839</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>313.8295715830489</v>
+        <v>260.01923005808629</v>
       </c>
       <c r="B5">
-        <v>148</v>
+        <v>146.7514906227531</v>
       </c>
       <c r="C5">
-        <v>184.2851052038661</v>
+        <v>136.56500283747661</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>285.97377502141688</v>
+        <v>258.86289807540982</v>
       </c>
       <c r="B6">
-        <v>100.01999800039989</v>
+        <v>159.62455951387929</v>
       </c>
       <c r="C6">
-        <v>197.49683541768459</v>
+        <v>126.2457920090804</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>313.02555806195761</v>
+        <v>258.21309029559279</v>
       </c>
       <c r="B7">
-        <v>186.09674903124991</v>
+        <v>143.20963654726589</v>
       </c>
       <c r="C7">
-        <v>152.20052562327109</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <f>SUM(A2:A26)/COUNT(A2:A26)</f>
+        <v>259.31548012111386</v>
+      </c>
+      <c r="H7">
+        <f>SUM(B2:B26)/COUNT(B2:B26)</f>
+        <v>140.93514236819112</v>
+      </c>
+      <c r="I7">
+        <f>SUM(C2:C26)/COUNT(C2:C26)</f>
+        <v>141.76787779619988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>312.14419744726962</v>
+        <v>257.39075352467501</v>
       </c>
       <c r="B8">
-        <v>187.10692130437079</v>
+        <v>157.4325252290644</v>
       </c>
       <c r="C8">
-        <v>156.63013758533191</v>
+        <v>133.15029102484161</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>312.16982557575932</v>
+        <v>257.39075352467501</v>
       </c>
       <c r="B9">
-        <v>224.28776159211179</v>
+        <v>163.47782724271809</v>
       </c>
       <c r="C9">
-        <v>133.15029102484161</v>
+        <v>122.0040982918197</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>317.19552329753958</v>
+        <v>256.62813563598212</v>
       </c>
       <c r="B10">
-        <v>167.17057157286979</v>
+        <v>126.6056870760552</v>
       </c>
       <c r="C10">
-        <v>177.552809045647</v>
+        <v>154.3534904043313</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>305.67957079268479</v>
+        <v>257.07002936943081</v>
       </c>
       <c r="B11">
-        <v>133.88054376943651</v>
+        <v>148.08105888330209</v>
       </c>
       <c r="C11">
-        <v>185.39687160251651</v>
+        <v>124.61540835707279</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>312.54119728445397</v>
+        <v>261.69065707434038</v>
       </c>
       <c r="B12">
-        <v>156.54072952429979</v>
+        <v>149.2648652563623</v>
       </c>
       <c r="C12">
-        <v>196.72569735548021</v>
+        <v>135.59498515800649</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>313.30815501675022</v>
+        <v>260.84861510078991</v>
       </c>
       <c r="B13">
-        <v>159.6151621870554</v>
+        <v>160.37767924496231</v>
       </c>
       <c r="C13">
-        <v>187.41664813991309</v>
+        <v>134.33167906342871</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>311.88780033851918</v>
+        <v>258.49564793241677</v>
       </c>
       <c r="B14">
-        <v>153.80832227158581</v>
+        <v>150.02999700059979</v>
       </c>
       <c r="C14">
-        <v>196.46119209655629</v>
+        <v>120.1540677630183</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>311.24588350691482</v>
+        <v>258.37956575549862</v>
       </c>
       <c r="B15">
-        <v>155.54099138169329</v>
+        <v>146.11296999240011</v>
       </c>
       <c r="C15">
-        <v>193.1035991378721</v>
+        <v>123.1300125883206</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>313.19323108905149</v>
+        <v>258.93628559937292</v>
       </c>
       <c r="B16">
-        <v>186.60117898877269</v>
+        <v>145.34441853748629</v>
       </c>
       <c r="C16">
-        <v>162.28986413205229</v>
+        <v>124.61540835707279</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -604,13 +619,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>313.12936623702348</v>
+        <v>260.84861510078991</v>
       </c>
       <c r="B17">
-        <v>203.85534086699809</v>
+        <v>122.0040982918197</v>
       </c>
       <c r="C17">
-        <v>152.2268044727997</v>
+        <v>165.06059493410291</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -618,13 +633,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>310.30630029053549</v>
+        <v>261.00766272276383</v>
       </c>
       <c r="B18">
-        <v>188.80942773071479</v>
+        <v>128.31601614763451</v>
       </c>
       <c r="C18">
-        <v>158.53390804493529</v>
+        <v>150.54567413247051</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -632,13 +647,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>313.70368184004468</v>
+        <v>261.00766272276383</v>
       </c>
       <c r="B19">
-        <v>180.9226353997752</v>
+        <v>144.75496537252181</v>
       </c>
       <c r="C19">
-        <v>159.8030037264632</v>
+        <v>155.30936868070771</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -646,13 +661,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>313.3209217399949</v>
+        <v>261.27571643763599</v>
       </c>
       <c r="B20">
-        <v>164.1493222648208</v>
+        <v>125.2397700413092</v>
       </c>
       <c r="C20">
-        <v>183.7416664776936</v>
+        <v>153.84407690905749</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -660,13 +675,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>313.18045916052938</v>
+        <v>259.37231926325518</v>
       </c>
       <c r="B21">
-        <v>155.43809056984711</v>
+        <v>131.82564242210239</v>
       </c>
       <c r="C21">
-        <v>195.81879378650049</v>
+        <v>155.76905982896599</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -674,13 +689,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>312.25950746134208</v>
+        <v>261.12257658042518</v>
       </c>
       <c r="B22">
-        <v>154.7287949930458</v>
+        <v>124.61540835707279</v>
       </c>
       <c r="C22">
-        <v>191.5646105103967</v>
+        <v>156.37135287513499</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -688,13 +703,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>311.16876449926662</v>
+        <v>261.06895640807238</v>
       </c>
       <c r="B23">
-        <v>146.03081866510229</v>
+        <v>120.93386622447829</v>
       </c>
       <c r="C23">
-        <v>206.11889772653061</v>
+        <v>159.42396306703711</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -702,13 +717,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>311.81084009379788</v>
+        <v>259.55731544304427</v>
       </c>
       <c r="B24">
-        <v>177.89041570584959</v>
+        <v>131.36970731489049</v>
       </c>
       <c r="C24">
-        <v>161.7930777258409</v>
+        <v>154.3243337908834</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -716,13 +731,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>309.00647242412248</v>
+        <v>260.84861510078991</v>
       </c>
       <c r="B25">
-        <v>188.48872645333461</v>
+        <v>129.0038759107648</v>
       </c>
       <c r="C25">
-        <v>145.79780519610031</v>
+        <v>154.73848907107759</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -730,13 +745,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>312.69473932255403</v>
+        <v>259.43399931389098</v>
       </c>
       <c r="B26">
-        <v>189.26436537288259</v>
+        <v>127.0472353103364</v>
       </c>
       <c r="C26">
-        <v>171.1286066091815</v>
+        <v>159.67780058605521</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -744,55 +759,55 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>310.69277429641011</v>
+        <v>294.24139749532179</v>
       </c>
       <c r="B27">
-        <v>160.22796260328599</v>
+        <v>153.68799562750499</v>
       </c>
       <c r="C27">
-        <v>180.6017718628475</v>
+        <v>165.02727047370081</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>311.22017929433821</v>
+        <v>289.02768033529247</v>
       </c>
       <c r="B28">
-        <v>152.0427571441665</v>
+        <v>153.68799562750499</v>
       </c>
       <c r="C28">
-        <v>191.66898549321951</v>
+        <v>149.6161755960899</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>311.4514408378937</v>
+        <v>294.63536787018631</v>
       </c>
       <c r="B29">
-        <v>170.13524032369071</v>
+        <v>180.23595645708431</v>
       </c>
       <c r="C29">
-        <v>171.45261736118229</v>
+        <v>139.5170240508304</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>350.70500424145598</v>
+        <v>293.17059879871988</v>
       </c>
       <c r="B30">
-        <v>212.04952251773639</v>
+        <v>179.62182495454161</v>
       </c>
       <c r="C30">
-        <v>175.85505395068981</v>
+        <v>132.0340865079923</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -800,13 +815,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>350.55670012139262</v>
+        <v>295.006779583114</v>
       </c>
       <c r="B31">
-        <v>204.97804760510331</v>
+        <v>180.88670487352019</v>
       </c>
       <c r="C31">
-        <v>179.0474797365213</v>
+        <v>134.33167906342871</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -814,13 +829,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>349.09167850293989</v>
+        <v>296.23301639081348</v>
       </c>
       <c r="B32">
-        <v>205.5723716845238</v>
+        <v>169.49631264425781</v>
       </c>
       <c r="C32">
-        <v>172.62966141425409</v>
+        <v>150.8409758653132</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -828,13 +843,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>352.36628669610258</v>
+        <v>294.00680264238792</v>
       </c>
       <c r="B33">
-        <v>207.07728026029321</v>
+        <v>193.7059627373406</v>
       </c>
       <c r="C33">
-        <v>178.84350701101789</v>
+        <v>151.82226450688981</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -842,13 +857,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>350.48823090083931</v>
+        <v>285.79713084634</v>
       </c>
       <c r="B34">
-        <v>215.10230124292019</v>
+        <v>167.03592427977881</v>
       </c>
       <c r="C34">
-        <v>169.4254998517047</v>
+        <v>132.3820229487373</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -856,13 +871,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>351.02421568888951</v>
+        <v>279.03404810166091</v>
       </c>
       <c r="B35">
-        <v>189.9947367692063</v>
+        <v>145.34441853748629</v>
       </c>
       <c r="C35">
-        <v>197.52468200202219</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -870,13 +885,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>350.4083332342426</v>
+        <v>287.00522643324808</v>
       </c>
       <c r="B36">
-        <v>174.66825699021561</v>
+        <v>180.20543831971329</v>
       </c>
       <c r="C36">
-        <v>209.23909768492121</v>
+        <v>163.61540269791229</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -884,13 +899,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>350.44257732187742</v>
+        <v>287.00522643324808</v>
       </c>
       <c r="B37">
-        <v>168.07438829280329</v>
+        <v>180.20543831971329</v>
       </c>
       <c r="C37">
-        <v>219.0456573411123</v>
+        <v>163.61540269791229</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -898,13 +913,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>332.81376173469749</v>
+        <v>295.06101064017253</v>
       </c>
       <c r="B38">
-        <v>218.56349191939631</v>
+        <v>173.95401691251629</v>
       </c>
       <c r="C38">
-        <v>175.37673733993341</v>
+        <v>141.43903280212291</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -912,13 +927,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>351.44558611540418</v>
+        <v>293.027302482209</v>
       </c>
       <c r="B39">
-        <v>218.3323155192561</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="C39">
-        <v>167.107749670684</v>
+        <v>134.18271125595879</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -926,13 +941,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>354.46438467073108</v>
+        <v>292.24989307098127</v>
       </c>
       <c r="B40">
-        <v>164.01219466856719</v>
+        <v>167.70509831248421</v>
       </c>
       <c r="C40">
-        <v>223.57325421436261</v>
+        <v>148.94629904767689</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -940,13 +955,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>352.42304124446798</v>
+        <v>290.36700914532292</v>
       </c>
       <c r="B41">
-        <v>188.16216410320109</v>
+        <v>135.4400236266961</v>
       </c>
       <c r="C41">
-        <v>200.8706051168264</v>
+        <v>174.89711261195819</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -954,13 +969,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>350.55670012139262</v>
+        <v>293.61539469176341</v>
       </c>
       <c r="B42">
-        <v>173.72679701185999</v>
+        <v>152.85614151874961</v>
       </c>
       <c r="C42">
-        <v>216.12265036316759</v>
+        <v>166.82026255823959</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -968,13 +983,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>348.76066291942959</v>
+        <v>287.76726707532248</v>
       </c>
       <c r="B43">
-        <v>232.16588896735021</v>
+        <v>148.0033783398203</v>
       </c>
       <c r="C43">
-        <v>125.015998976131</v>
+        <v>168.60901518009049</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -982,13 +997,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>351.17232237179508</v>
+        <v>284.10209432526187</v>
       </c>
       <c r="B44">
-        <v>176.78518037437411</v>
+        <v>153.16984037335811</v>
       </c>
       <c r="C44">
-        <v>206.23530250662711</v>
+        <v>162.9263637352777</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -996,13 +1011,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>350.95583767762008</v>
+        <v>299.04681907687967</v>
       </c>
       <c r="B45">
-        <v>170.66048165876009</v>
+        <v>145.46477236774541</v>
       </c>
       <c r="C45">
-        <v>214.24518664371439</v>
+        <v>175.045708316428</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1010,13 +1025,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>350.16853085335919</v>
+        <v>295.4894245146516</v>
       </c>
       <c r="B46">
-        <v>170.66048165876009</v>
+        <v>175.19132398609241</v>
       </c>
       <c r="C46">
-        <v>217.31313812100731</v>
+        <v>148.2228052628879</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1024,13 +1039,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>352.94475488382028</v>
+        <v>295.06101064017253</v>
       </c>
       <c r="B47">
-        <v>214.41082062246761</v>
+        <v>172.04650534085249</v>
       </c>
       <c r="C47">
-        <v>179.49373248110919</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1038,13 +1053,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>350.48823090083931</v>
+        <v>287.78464170278443</v>
       </c>
       <c r="B48">
-        <v>214.58098704218881</v>
+        <v>160.80111939908869</v>
       </c>
       <c r="C48">
-        <v>170.59015211904821</v>
+        <v>138.7984149765407</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1052,13 +1067,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>349.65411480490258</v>
+        <v>287.08883642524307</v>
       </c>
       <c r="B49">
-        <v>182.78402556022229</v>
+        <v>175.823775411632</v>
       </c>
       <c r="C49">
-        <v>204.97804760510331</v>
+        <v>167.72000476985451</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1066,13 +1081,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>344.28040896920061</v>
+        <v>293.2047066470796</v>
       </c>
       <c r="B50">
-        <v>182.22239159883731</v>
+        <v>187.7711372921834</v>
       </c>
       <c r="C50">
-        <v>182.17573932881399</v>
+        <v>139.5170240508304</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1080,13 +1095,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>355.27594908746642</v>
+        <v>290</v>
       </c>
       <c r="B51">
-        <v>187.84035775093699</v>
+        <v>158.8238017426859</v>
       </c>
       <c r="C51">
-        <v>210.29740844813091</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1094,83 +1109,83 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>347.31109973624513</v>
+        <v>322.30730677414061</v>
       </c>
       <c r="B52">
-        <v>214.1331361559906</v>
+        <v>178.39282496782209</v>
       </c>
       <c r="C52">
-        <v>189.9947367692063</v>
+        <v>177.0028248362155</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>356.35515991774281</v>
+        <v>322.90246205317169</v>
       </c>
       <c r="B53">
-        <v>181.40011025354971</v>
+        <v>182.1867174082677</v>
       </c>
       <c r="C53">
-        <v>209.258213697814</v>
+        <v>171.84295155751951</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>351.63901945034479</v>
+        <v>322.38641410580573</v>
       </c>
       <c r="B54">
-        <v>210.4305110957059</v>
+        <v>189.4887859478761</v>
       </c>
       <c r="C54">
-        <v>181.43042743707571</v>
+        <v>172.35138525698019</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>350.48823090083931</v>
+        <v>312.87217837321361</v>
       </c>
       <c r="B55">
-        <v>206.90335908341359</v>
+        <v>187.87761974221411</v>
       </c>
       <c r="C55">
-        <v>177.89041570584959</v>
+        <v>172.52536045463</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>351.40005691519173</v>
+        <v>299.93332592427942</v>
       </c>
       <c r="B56">
-        <v>161.01242188104621</v>
+        <v>143.02796929272259</v>
       </c>
       <c r="C56">
-        <v>235.92583580439</v>
+        <v>167.37084572887841</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>383.26231226145887</v>
+        <v>319.23032437411081</v>
       </c>
       <c r="B57">
-        <v>236.78048906107111</v>
+        <v>208.92582415776181</v>
       </c>
       <c r="C57">
-        <v>183.80696395947569</v>
+        <v>163.61540269791229</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1178,13 +1193,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>383.81505963158872</v>
+        <v>325.03692097975579</v>
       </c>
       <c r="B58">
-        <v>208.80613017821099</v>
+        <v>206.63494380186521</v>
       </c>
       <c r="C58">
-        <v>210.66086489901249</v>
+        <v>157.30543537970959</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1192,13 +1207,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>384.20046850570083</v>
+        <v>322.00621112022048</v>
       </c>
       <c r="B59">
-        <v>235.2806834400138</v>
+        <v>184.7647152461746</v>
       </c>
       <c r="C59">
-        <v>190.2340663498523</v>
+        <v>182.21415971323421</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1206,13 +1221,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>382.57678967757568</v>
+        <v>318.48704840228589</v>
       </c>
       <c r="B60">
-        <v>216.33307652783941</v>
+        <v>197.29419656948861</v>
       </c>
       <c r="C60">
-        <v>217.8003673091485</v>
+        <v>148.31385639919151</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1220,13 +1235,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>387.72283915188689</v>
+        <v>321.37517016720511</v>
       </c>
       <c r="B61">
-        <v>238.73206738936429</v>
+        <v>167.04490414256881</v>
       </c>
       <c r="C61">
-        <v>195.57607215607939</v>
+        <v>181.24568960391861</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1234,13 +1249,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>383.64827641995208</v>
+        <v>314.37716202039871</v>
       </c>
       <c r="B62">
-        <v>201.1019641873246</v>
+        <v>176.72577627499621</v>
       </c>
       <c r="C62">
-        <v>221.44976857066251</v>
+        <v>153.8343264684446</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1248,13 +1263,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>385.57230190977151</v>
+        <v>320.50273009757649</v>
       </c>
       <c r="B63">
-        <v>204.46271053666479</v>
+        <v>185.80904176062049</v>
       </c>
       <c r="C63">
-        <v>219.5836970268968</v>
+        <v>168.07438829280329</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1262,13 +1277,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>384.41904219224102</v>
+        <v>319.13163428278312</v>
       </c>
       <c r="B64">
-        <v>198.60010070490901</v>
+        <v>165.13025161974409</v>
       </c>
       <c r="C64">
-        <v>222.63872080121189</v>
+        <v>176.13914953808541</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1276,13 +1291,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>376.64970463283248</v>
+        <v>308.93364983439398</v>
       </c>
       <c r="B65">
-        <v>209.80467106334879</v>
+        <v>160.09996876951601</v>
       </c>
       <c r="C65">
-        <v>233.18876473792639</v>
+        <v>163.41358572652399</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1290,13 +1305,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>385.37514190720708</v>
+        <v>313.26985172531357</v>
       </c>
       <c r="B66">
-        <v>225.88713996153041</v>
+        <v>177.58941409892651</v>
       </c>
       <c r="C66">
-        <v>197.8913843501025</v>
+        <v>170.98537949193201</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -1304,13 +1319,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>384.25252113681699</v>
+        <v>311.7081968765018</v>
       </c>
       <c r="B67">
-        <v>233.02574965011911</v>
+        <v>178.01685313475241</v>
       </c>
       <c r="C67">
-        <v>186.62529303392941</v>
+        <v>163.81697103780181</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -1318,13 +1333,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>384.25252113681699</v>
+        <v>321.82293268193303</v>
       </c>
       <c r="B68">
-        <v>201.8539075668341</v>
+        <v>172.52536045463</v>
       </c>
       <c r="C68">
-        <v>223.30472453577869</v>
+        <v>181.17670931993439</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -1332,13 +1347,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>383.19968684747118</v>
+        <v>316.93847983480958</v>
       </c>
       <c r="B69">
-        <v>195.75750304905301</v>
+        <v>186.6815470259447</v>
       </c>
       <c r="C69">
-        <v>222.35332243976029</v>
+        <v>161.98765385053269</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -1346,13 +1361,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>384.41904219224102</v>
+        <v>307.88309469667217</v>
       </c>
       <c r="B70">
-        <v>218.83326986543889</v>
+        <v>199.44422779313521</v>
       </c>
       <c r="C70">
-        <v>202.05444810743461</v>
+        <v>173.55690709389819</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -1360,13 +1375,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>383.04699450589612</v>
+        <v>299.55300031880842</v>
       </c>
       <c r="B71">
-        <v>224.32119828495931</v>
+        <v>136.4734406395618</v>
       </c>
       <c r="C71">
-        <v>191.59592897553961</v>
+        <v>174.00287353949071</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -1374,13 +1389,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>384.25252113681699</v>
+        <v>325.29525050329278</v>
       </c>
       <c r="B72">
-        <v>199.6246477767713</v>
+        <v>181.22085972646749</v>
       </c>
       <c r="C72">
-        <v>223.89283150650451</v>
+        <v>177.0028248362155</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -1388,13 +1403,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>384.25252113681699</v>
+        <v>319.7577207824699</v>
       </c>
       <c r="B73">
-        <v>199.6246477767713</v>
+        <v>185.84133017173551</v>
       </c>
       <c r="C73">
-        <v>223.89283150650451</v>
+        <v>181.13530854032851</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -1402,13 +1417,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>384.78305575999582</v>
+        <v>319.05642134268351</v>
       </c>
       <c r="B74">
-        <v>206.16983290481659</v>
+        <v>176.87566254292869</v>
       </c>
       <c r="C74">
-        <v>220.1090638751617</v>
+        <v>183.80968418448469</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -1416,13 +1431,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>380.60084077679068</v>
+        <v>319.05642134268351</v>
       </c>
       <c r="B75">
-        <v>180.48822676285559</v>
+        <v>170.18813119603851</v>
       </c>
       <c r="C75">
-        <v>223.16137658654111</v>
+        <v>171.39719951037711</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -1430,125 +1445,125 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>380.60084077679068</v>
+        <v>276.97292286431178</v>
       </c>
       <c r="B76">
-        <v>223.95758527006851</v>
+        <v>157.17506163510799</v>
       </c>
       <c r="C76">
-        <v>218.00917411888889</v>
+        <v>143.0314650697531</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>386.1152677633973</v>
+        <v>275.46506130542218</v>
       </c>
       <c r="B77">
-        <v>213.62116000059541</v>
+        <v>168.8075827680735</v>
       </c>
       <c r="C77">
-        <v>221.32555207205519</v>
+        <v>124.3261838873855</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>386.1152677633973</v>
+        <v>277.1154993860863</v>
       </c>
       <c r="B78">
-        <v>213.62116000059541</v>
+        <v>178.57211428439771</v>
       </c>
       <c r="C78">
-        <v>221.32555207205519</v>
+        <v>119</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>367.31594030207839</v>
+        <v>277.75168766363959</v>
       </c>
       <c r="B79">
-        <v>132.2422020385323</v>
+        <v>164.9242250247064</v>
       </c>
       <c r="C79">
-        <v>254.7017864091259</v>
+        <v>139.52060779684129</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>370.39033464711252</v>
+        <v>280.67240690883739</v>
       </c>
       <c r="B80">
-        <v>236.24140195994431</v>
+        <v>177.22866585290319</v>
       </c>
       <c r="C80">
-        <v>198.97989848223361</v>
+        <v>137.64083696345361</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>363.18590281011728</v>
+        <v>278.11508409289848</v>
       </c>
       <c r="B81">
-        <v>189.71821209362059</v>
+        <v>172.53985046939161</v>
       </c>
       <c r="C81">
-        <v>190.60167890131501</v>
+        <v>151.26797413861269</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>367.49557820469079</v>
+        <v>276.37112729082253</v>
       </c>
       <c r="B82">
-        <v>182.584227139148</v>
+        <v>170.17931719219001</v>
       </c>
       <c r="C82">
-        <v>206.82843131445929</v>
+        <v>128.22636234409831</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>384.41904219224102</v>
+        <v>280.713376952364</v>
       </c>
       <c r="B83">
-        <v>270.56422527747458</v>
+        <v>185.16209115258991</v>
       </c>
       <c r="C83">
-        <v>166.20770138594659</v>
+        <v>116.46887996370531</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>372.84044844946737</v>
+        <v>278.88707392061042</v>
       </c>
       <c r="B84">
-        <v>212.52999788265191</v>
+        <v>179.836036433191</v>
       </c>
       <c r="C84">
-        <v>205.56507485465519</v>
+        <v>135.76818478568529</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1556,13 +1571,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>332.58081724597412</v>
+        <v>279.30270317345662</v>
       </c>
       <c r="B85">
-        <v>206.11889772653061</v>
+        <v>163.0245380303223</v>
       </c>
       <c r="C85">
-        <v>174.32441022415651</v>
+        <v>148.3947438422264</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1570,13 +1585,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>366.15024238691962</v>
+        <v>278.72925931807009</v>
       </c>
       <c r="B86">
-        <v>186.93849255838131</v>
+        <v>151.9539403898431</v>
       </c>
       <c r="C86">
-        <v>214.41082062246761</v>
+        <v>153.07514494521959</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1584,13 +1599,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>364.32128677857952</v>
+        <v>278.31277369175848</v>
       </c>
       <c r="B87">
-        <v>186.25251676151919</v>
+        <v>159.53056133543819</v>
       </c>
       <c r="C87">
-        <v>214.41082062246761</v>
+        <v>153.38839591051209</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1598,13 +1613,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>323.86725675807372</v>
+        <v>274.33191575170389</v>
       </c>
       <c r="B88">
-        <v>167.86303941010959</v>
+        <v>147.2752525036029</v>
       </c>
       <c r="C88">
-        <v>191.76026700023129</v>
+        <v>159.42396306703711</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1612,13 +1627,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>365.99726774936448</v>
+        <v>275.06544675767623</v>
       </c>
       <c r="B89">
-        <v>217.56838005555861</v>
+        <v>165.12419568312819</v>
       </c>
       <c r="C89">
-        <v>186.25251676151919</v>
+        <v>149.09393012460299</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1626,13 +1641,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>337.40924705763467</v>
+        <v>274.5359721420856</v>
       </c>
       <c r="B90">
-        <v>193.66207682455541</v>
+        <v>150.04665940966501</v>
       </c>
       <c r="C90">
-        <v>162.78820596099709</v>
+        <v>157.5436447464638</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -1640,13 +1655,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>373.7084425056517</v>
+        <v>277.18044664081202</v>
       </c>
       <c r="B91">
-        <v>200.53179299053801</v>
+        <v>172.23530416264839</v>
       </c>
       <c r="C91">
-        <v>217.0829334609241</v>
+        <v>143.7567389724739</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -1654,13 +1669,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>373.1340241789805</v>
+        <v>277.72288346479479</v>
       </c>
       <c r="B92">
-        <v>207.1183236703117</v>
+        <v>159.84054554461451</v>
       </c>
       <c r="C92">
-        <v>218.0573319106698</v>
+        <v>149.04026301640769</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -1668,13 +1683,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>333.28966380612519</v>
+        <v>277.95323347642488</v>
       </c>
       <c r="B93">
-        <v>180.09441968034429</v>
+        <v>149.3452376207558</v>
       </c>
       <c r="C93">
-        <v>186.60117898877269</v>
+        <v>156.18578680533</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -1682,13 +1697,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>364.04670030093672</v>
+        <v>309.71277015970782</v>
       </c>
       <c r="B94">
-        <v>206.89127579480001</v>
+        <v>193.65174928205531</v>
       </c>
       <c r="C94">
-        <v>194.98205045593301</v>
+        <v>149.4021418855834</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -1696,13 +1711,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>361.00554012369389</v>
+        <v>310.35785796399608</v>
       </c>
       <c r="B95">
-        <v>180.02499826413001</v>
+        <v>194.58931111445969</v>
       </c>
       <c r="C95">
-        <v>208.12496246245911</v>
+        <v>150.37619492459569</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -1710,13 +1725,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>324.13885913293387</v>
+        <v>309.71277015970782</v>
       </c>
       <c r="B96">
-        <v>166.715326230074</v>
+        <v>174.8628033630938</v>
       </c>
       <c r="C96">
-        <v>190.67249408344139</v>
+        <v>163.62457028209431</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -1724,13 +1739,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>372.03494459526252</v>
+        <v>309.46728421595708</v>
       </c>
       <c r="B97">
-        <v>171.4934401077779</v>
+        <v>168.96153408394471</v>
       </c>
       <c r="C97">
-        <v>243.6144494893519</v>
+        <v>169.0976049505137</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -1738,13 +1753,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>371.09836970808698</v>
+        <v>309.58359129643799</v>
       </c>
       <c r="B98">
-        <v>234.08759044426091</v>
+        <v>174.00287353949071</v>
       </c>
       <c r="C98">
-        <v>182.584227139148</v>
+        <v>166.9401090211696</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -1752,13 +1767,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>372.50771804084809</v>
+        <v>305</v>
       </c>
       <c r="B99">
-        <v>212.4547010541306</v>
+        <v>174.1522322567242</v>
       </c>
       <c r="C99">
-        <v>204.628932460686</v>
+        <v>175.025712396779</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -1766,13 +1781,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>333.39766045969787</v>
+        <v>308.36666486505959</v>
       </c>
       <c r="B100">
-        <v>201.01989951246119</v>
+        <v>163.62457028209431</v>
       </c>
       <c r="C100">
-        <v>167.107749670684</v>
+        <v>176.87566254292869</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -1780,13 +1795,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>335.0492501110844</v>
+        <v>309.23453882126432</v>
       </c>
       <c r="B101">
-        <v>206.20620747203509</v>
+        <v>172.20046457544771</v>
       </c>
       <c r="C101">
-        <v>171.09354166653981</v>
+        <v>166.41213898030401</v>
       </c>
       <c r="D101">
         <v>3</v>
@@ -1794,13 +1809,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>323</v>
+        <v>308.60006480880719</v>
       </c>
       <c r="B102">
-        <v>191.03926298015281</v>
+        <v>155.93909067324969</v>
       </c>
       <c r="C102">
-        <v>156.66843970627909</v>
+        <v>181.6177304119837</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -1808,13 +1823,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>323</v>
+        <v>308.60006480880719</v>
       </c>
       <c r="B103">
-        <v>189.15602025841</v>
+        <v>171.29214809792069</v>
       </c>
       <c r="C103">
-        <v>158.49605673328281</v>
+        <v>168.07438829280329</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -1822,13 +1837,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>325.6777548436491</v>
+        <v>309.02588888311612</v>
       </c>
       <c r="B104">
-        <v>168.00297616411439</v>
+        <v>171.3300907604966</v>
       </c>
       <c r="C104">
-        <v>190.28662590944219</v>
+        <v>172.17723426748381</v>
       </c>
       <c r="D104">
         <v>3</v>
@@ -1836,13 +1851,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>325.1122882943676</v>
+        <v>311.20732639190868</v>
       </c>
       <c r="B105">
-        <v>168.90825912311101</v>
+        <v>160.3527361787132</v>
       </c>
       <c r="C105">
-        <v>190.42058712229621</v>
+        <v>183.07648674802559</v>
       </c>
       <c r="D105">
         <v>3</v>
@@ -1850,13 +1865,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>324.75529248959128</v>
+        <v>308.76852171165382</v>
       </c>
       <c r="B106">
-        <v>169.6496389621858</v>
+        <v>189.1903803051307</v>
       </c>
       <c r="C106">
-        <v>187.41664813991309</v>
+        <v>149.1207564358497</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -1864,43 +1879,15 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>324.05246488801782</v>
+        <v>307.00651458886023</v>
       </c>
       <c r="B107">
-        <v>187.77912557044249</v>
+        <v>174.63103962354461</v>
       </c>
       <c r="C107">
-        <v>174.62244987400669</v>
+        <v>154.3146136955279</v>
       </c>
       <c r="D107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>324.4102341172362</v>
-      </c>
-      <c r="B108">
-        <v>197.101496696499</v>
-      </c>
-      <c r="C108">
-        <v>160.2404443328837</v>
-      </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>323.60778729814268</v>
-      </c>
-      <c r="B109">
-        <v>191.76026700023129</v>
-      </c>
-      <c r="C109">
-        <v>166.715326230074</v>
-      </c>
-      <c r="D109">
         <v>3</v>
       </c>
     </row>

--- a/SizeDetect/new_datasets/train/size_data.xlsx
+++ b/SizeDetect/new_datasets/train/size_data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="size" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -370,18 +370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,223 +392,211 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>257.07002936943081</v>
+        <v>259.00772189261079</v>
       </c>
       <c r="B2">
-        <v>142.3376267892647</v>
+        <v>148</v>
       </c>
       <c r="C2">
-        <v>130.1729618622854</v>
+        <v>127.58134659894451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>257.07002936943081</v>
+        <v>261.12257658042518</v>
       </c>
       <c r="B3">
-        <v>142.3376267892647</v>
+        <v>144.4749113168096</v>
       </c>
       <c r="C3">
-        <v>130.1729618622854</v>
+        <v>152.68922686293229</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>259.27784324928348</v>
+        <v>257.4975728040946</v>
       </c>
       <c r="B4">
-        <v>157.28000508646991</v>
+        <v>155.24174696260019</v>
       </c>
       <c r="C4">
-        <v>140.0642709615839</v>
+        <v>120.76837334335509</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>260.01923005808629</v>
+        <v>261.62950903902259</v>
       </c>
       <c r="B5">
-        <v>146.7514906227531</v>
+        <v>154.2368308803056</v>
       </c>
       <c r="C5">
-        <v>136.56500283747661</v>
+        <v>136.9561973771176</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>258.86289807540982</v>
+        <v>255.03137061938091</v>
       </c>
       <c r="B6">
-        <v>159.62455951387929</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="C6">
-        <v>126.2457920090804</v>
+        <v>125.8729518204765</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>258.21309029559279</v>
+        <v>259.37231926325518</v>
       </c>
       <c r="B7">
-        <v>143.20963654726589</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="C7">
-        <v>143.9618004888797</v>
+        <v>157.17506163510799</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <f>SUM(A2:A26)/COUNT(A2:A26)</f>
-        <v>259.31548012111386</v>
-      </c>
-      <c r="H7">
-        <f>SUM(B2:B26)/COUNT(B2:B26)</f>
-        <v>140.93514236819112</v>
-      </c>
-      <c r="I7">
-        <f>SUM(C2:C26)/COUNT(C2:C26)</f>
-        <v>141.76787779619988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>257.39075352467501</v>
+        <v>260.20376630633149</v>
       </c>
       <c r="B8">
-        <v>157.4325252290644</v>
+        <v>129.65338406690361</v>
       </c>
       <c r="C8">
-        <v>133.15029102484161</v>
+        <v>153.84407690905749</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>257.39075352467501</v>
+        <v>259.94230129011322</v>
       </c>
       <c r="B9">
-        <v>163.47782724271809</v>
+        <v>135.6244815658294</v>
       </c>
       <c r="C9">
-        <v>122.0040982918197</v>
+        <v>148.43180252223581</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>256.62813563598212</v>
+        <v>261.62950903902259</v>
       </c>
       <c r="B10">
-        <v>126.6056870760552</v>
+        <v>144.06248644251559</v>
       </c>
       <c r="C10">
-        <v>154.3534904043313</v>
+        <v>141.20906486483079</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>257.07002936943081</v>
+        <v>257.0311265197272</v>
       </c>
       <c r="B11">
-        <v>148.08105888330209</v>
+        <v>157.06368135250111</v>
       </c>
       <c r="C11">
-        <v>124.61540835707279</v>
+        <v>138.57128129594531</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>261.69065707434038</v>
+        <v>257.0311265197272</v>
       </c>
       <c r="B12">
-        <v>149.2648652563623</v>
+        <v>157.06368135250111</v>
       </c>
       <c r="C12">
-        <v>135.59498515800649</v>
+        <v>138.57128129594531</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>260.84861510078991</v>
+        <v>253.87004549572211</v>
       </c>
       <c r="B13">
-        <v>160.37767924496231</v>
+        <v>136.70405992508049</v>
       </c>
       <c r="C13">
-        <v>134.33167906342871</v>
+        <v>142.77955035648489</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>258.49564793241677</v>
+        <v>251.87695408671269</v>
       </c>
       <c r="B14">
-        <v>150.02999700059979</v>
+        <v>141.15594213493111</v>
       </c>
       <c r="C14">
-        <v>120.1540677630183</v>
+        <v>138.35100288758301</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>258.37956575549862</v>
+        <v>255.40947515705051</v>
       </c>
       <c r="B15">
-        <v>146.11296999240011</v>
+        <v>140.90067423543439</v>
       </c>
       <c r="C15">
-        <v>123.1300125883206</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>258.93628559937292</v>
+        <v>254.89213404889529</v>
       </c>
       <c r="B16">
-        <v>145.34441853748629</v>
+        <v>136.45878498652991</v>
       </c>
       <c r="C16">
-        <v>124.61540835707279</v>
+        <v>145.79780519610031</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -619,13 +604,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>260.84861510078991</v>
+        <v>255.86324472264479</v>
       </c>
       <c r="B17">
-        <v>122.0040982918197</v>
+        <v>145.6193668438371</v>
       </c>
       <c r="C17">
-        <v>165.06059493410291</v>
+        <v>139.08630414242799</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -633,13 +618,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>261.00766272276383</v>
+        <v>254.43663258265309</v>
       </c>
       <c r="B18">
-        <v>128.31601614763451</v>
+        <v>135.76818478568529</v>
       </c>
       <c r="C18">
-        <v>150.54567413247051</v>
+        <v>146.63219291819931</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -647,13 +632,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>261.00766272276383</v>
+        <v>254.6566315649369</v>
       </c>
       <c r="B19">
-        <v>144.75496537252181</v>
+        <v>141.38246001537809</v>
       </c>
       <c r="C19">
-        <v>155.30936868070771</v>
+        <v>143.80890097626079</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -661,13 +646,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>261.27571643763599</v>
+        <v>255.40947515705051</v>
       </c>
       <c r="B20">
-        <v>125.2397700413092</v>
+        <v>151.71684151734769</v>
       </c>
       <c r="C20">
-        <v>153.84407690905749</v>
+        <v>125.8729518204765</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -675,13 +660,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>259.37231926325518</v>
+        <v>255.69122002915941</v>
       </c>
       <c r="B21">
-        <v>131.82564242210239</v>
+        <v>150.23315213360871</v>
       </c>
       <c r="C21">
-        <v>155.76905982896599</v>
+        <v>130.29197979921861</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -689,13 +674,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>261.12257658042518</v>
+        <v>258.86289807540982</v>
       </c>
       <c r="B22">
-        <v>124.61540835707279</v>
+        <v>139.60659010232999</v>
       </c>
       <c r="C22">
-        <v>156.37135287513499</v>
+        <v>144.24978336205569</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -703,58 +688,58 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>261.06895640807238</v>
+        <v>291.10994486619649</v>
       </c>
       <c r="B23">
-        <v>120.93386622447829</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C23">
-        <v>159.42396306703711</v>
+        <v>135.05924625881781</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>259.55731544304427</v>
+        <v>293</v>
       </c>
       <c r="B24">
-        <v>131.36970731489049</v>
+        <v>184.70787747142779</v>
       </c>
       <c r="C24">
-        <v>154.3243337908834</v>
+        <v>150.63200191194429</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>260.84861510078991</v>
+        <v>293.00682585905741</v>
       </c>
       <c r="B25">
-        <v>129.0038759107648</v>
+        <v>177.08754896942921</v>
       </c>
       <c r="C25">
-        <v>154.73848907107759</v>
+        <v>137.80058055030099</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>259.43399931389098</v>
+        <v>295.89525173615073</v>
       </c>
       <c r="B26">
-        <v>127.0472353103364</v>
+        <v>167.04490414256881</v>
       </c>
       <c r="C26">
-        <v>159.67780058605521</v>
+        <v>152.53196386331621</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -762,10 +747,10 @@
         <v>294.24139749532179</v>
       </c>
       <c r="B27">
-        <v>153.68799562750499</v>
+        <v>166.20770138594659</v>
       </c>
       <c r="C27">
-        <v>165.02727047370081</v>
+        <v>159.17600321656531</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -773,13 +758,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>289.02768033529247</v>
+        <v>291.02749011047052</v>
       </c>
       <c r="B28">
-        <v>153.68799562750499</v>
+        <v>166.8322510787408</v>
       </c>
       <c r="C28">
-        <v>149.6161755960899</v>
+        <v>164.3471934655411</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -787,13 +772,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>294.63536787018631</v>
+        <v>292.18145047213392</v>
       </c>
       <c r="B29">
-        <v>180.23595645708431</v>
+        <v>191.23022773609819</v>
       </c>
       <c r="C29">
-        <v>139.5170240508304</v>
+        <v>131.5028516801062</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -801,13 +786,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>293.17059879871988</v>
+        <v>291.89381630997258</v>
       </c>
       <c r="B30">
-        <v>179.62182495454161</v>
+        <v>173.11845655504209</v>
       </c>
       <c r="C30">
-        <v>132.0340865079923</v>
+        <v>141.7603611733548</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -815,13 +800,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>295.006779583114</v>
+        <v>293</v>
       </c>
       <c r="B31">
-        <v>180.88670487352019</v>
+        <v>132.50283015845361</v>
       </c>
       <c r="C31">
-        <v>134.33167906342871</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -829,13 +814,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>296.23301639081348</v>
+        <v>295.32693747777228</v>
       </c>
       <c r="B32">
-        <v>169.49631264425781</v>
+        <v>177.6119365358083</v>
       </c>
       <c r="C32">
-        <v>150.8409758653132</v>
+        <v>137.3608386695422</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -843,13 +828,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>294.00680264238792</v>
+        <v>291.49614062625261</v>
       </c>
       <c r="B33">
-        <v>193.7059627373406</v>
+        <v>160.3527361787132</v>
       </c>
       <c r="C33">
-        <v>151.82226450688981</v>
+        <v>166.60432167263849</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -857,13 +842,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>285.79713084634</v>
+        <v>293.10919466983631</v>
       </c>
       <c r="B34">
-        <v>167.03592427977881</v>
+        <v>172.04650534085249</v>
       </c>
       <c r="C34">
-        <v>132.3820229487373</v>
+        <v>142.2708684165525</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -871,13 +856,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>279.03404810166091</v>
+        <v>295.16944286290891</v>
       </c>
       <c r="B35">
-        <v>145.34441853748629</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C35">
-        <v>143.9618004888797</v>
+        <v>139.53135848260061</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -885,13 +870,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>287.00522643324808</v>
+        <v>293.17059879871988</v>
       </c>
       <c r="B36">
-        <v>180.20543831971329</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C36">
-        <v>163.61540269791229</v>
+        <v>137.7425134081704</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -899,13 +884,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>287.00522643324808</v>
+        <v>295.38110975483858</v>
       </c>
       <c r="B37">
-        <v>180.20543831971329</v>
+        <v>178.63930138690091</v>
       </c>
       <c r="C37">
-        <v>163.61540269791229</v>
+        <v>152.32202729743321</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -913,13 +898,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>295.06101064017253</v>
+        <v>292.24989307098127</v>
       </c>
       <c r="B38">
-        <v>173.95401691251629</v>
+        <v>177.77513886930311</v>
       </c>
       <c r="C38">
-        <v>141.43903280212291</v>
+        <v>144.50605523645021</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -927,13 +912,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>293.027302482209</v>
+        <v>293.87412271242943</v>
       </c>
       <c r="B39">
-        <v>180.27756377319949</v>
+        <v>154.87091398968369</v>
       </c>
       <c r="C39">
-        <v>134.18271125595879</v>
+        <v>163.95426191471819</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -941,13 +926,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>292.24989307098127</v>
+        <v>294.15982050579242</v>
       </c>
       <c r="B40">
-        <v>167.70509831248421</v>
+        <v>174.9428478103635</v>
       </c>
       <c r="C40">
-        <v>148.94629904767689</v>
+        <v>142.72000560538109</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -955,13 +940,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>290.36700914532292</v>
+        <v>294.63536787018631</v>
       </c>
       <c r="B41">
-        <v>135.4400236266961</v>
+        <v>152.81688388394781</v>
       </c>
       <c r="C41">
-        <v>174.89711261195819</v>
+        <v>167.4425274534519</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -969,153 +954,153 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>293.61539469176341</v>
+        <v>315.10157092594761</v>
       </c>
       <c r="B42">
-        <v>152.85614151874961</v>
+        <v>209.1721778822413</v>
       </c>
       <c r="C42">
-        <v>166.82026255823959</v>
+        <v>153.0032679389561</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>287.76726707532248</v>
+        <v>315.93986769637041</v>
       </c>
       <c r="B43">
-        <v>148.0033783398203</v>
+        <v>185.44001725625461</v>
       </c>
       <c r="C43">
-        <v>168.60901518009049</v>
+        <v>165.0757401921918</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>284.10209432526187</v>
+        <v>315.10157092594761</v>
       </c>
       <c r="B44">
-        <v>153.16984037335811</v>
+        <v>185.39687160251651</v>
       </c>
       <c r="C44">
-        <v>162.9263637352777</v>
+        <v>151.71354586852161</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>299.04681907687967</v>
+        <v>317.6570477732235</v>
       </c>
       <c r="B45">
-        <v>145.46477236774541</v>
+        <v>153.1176018620981</v>
       </c>
       <c r="C45">
-        <v>175.045708316428</v>
+        <v>194.51735141112729</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>295.4894245146516</v>
+        <v>318.48704840228589</v>
       </c>
       <c r="B46">
-        <v>175.19132398609241</v>
+        <v>169.81460479004741</v>
       </c>
       <c r="C46">
-        <v>148.2228052628879</v>
+        <v>184.16568627190031</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>295.06101064017253</v>
+        <v>315.67388235329202</v>
       </c>
       <c r="B47">
-        <v>172.04650534085249</v>
+        <v>155.41557193537591</v>
       </c>
       <c r="C47">
-        <v>143.265487818944</v>
+        <v>197.52468200202219</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>287.78464170278443</v>
+        <v>319.49491388752972</v>
       </c>
       <c r="B48">
-        <v>160.80111939908869</v>
+        <v>183.9918476454867</v>
       </c>
       <c r="C48">
-        <v>138.7984149765407</v>
+        <v>181.51583952922681</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>287.08883642524307</v>
+        <v>316.33210396670142</v>
       </c>
       <c r="B49">
-        <v>175.823775411632</v>
+        <v>170.8156901458411</v>
       </c>
       <c r="C49">
-        <v>167.72000476985451</v>
+        <v>177.73013250431109</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>293.2047066470796</v>
+        <v>321.37517016720511</v>
       </c>
       <c r="B50">
-        <v>187.7711372921834</v>
+        <v>150.23315213360871</v>
       </c>
       <c r="C50">
-        <v>139.5170240508304</v>
+        <v>214.5600149142426</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>290</v>
+        <v>318.5121661726597</v>
       </c>
       <c r="B51">
-        <v>158.8238017426859</v>
+        <v>141.52384958020329</v>
       </c>
       <c r="C51">
-        <v>143.265487818944</v>
+        <v>218.7167117528974</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>322.30730677414061</v>
+        <v>318.14776441144448</v>
       </c>
       <c r="B52">
-        <v>178.39282496782209</v>
+        <v>186.60117898877269</v>
       </c>
       <c r="C52">
-        <v>177.0028248362155</v>
+        <v>166.73931749890309</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -1123,13 +1108,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>322.90246205317169</v>
+        <v>317.00630908548169</v>
       </c>
       <c r="B53">
-        <v>182.1867174082677</v>
+        <v>204.97804760510331</v>
       </c>
       <c r="C53">
-        <v>171.84295155751951</v>
+        <v>135.95955280891451</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -1137,13 +1122,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>322.38641410580573</v>
+        <v>313.40867888429642</v>
       </c>
       <c r="B54">
-        <v>189.4887859478761</v>
+        <v>176.5106229097841</v>
       </c>
       <c r="C54">
-        <v>172.35138525698019</v>
+        <v>153.44380078712859</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -1151,13 +1136,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>312.87217837321361</v>
+        <v>317.10093030453248</v>
       </c>
       <c r="B55">
-        <v>187.87761974221411</v>
+        <v>181.6480112745526</v>
       </c>
       <c r="C55">
-        <v>172.52536045463</v>
+        <v>157.30543537970959</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -1165,13 +1150,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>299.93332592427942</v>
+        <v>317.98427634082788</v>
       </c>
       <c r="B56">
-        <v>143.02796929272259</v>
+        <v>199.21094347449889</v>
       </c>
       <c r="C56">
-        <v>167.37084572887841</v>
+        <v>160.10309178776029</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -1179,13 +1164,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>319.23032437411081</v>
+        <v>319.3900436770063</v>
       </c>
       <c r="B57">
-        <v>208.92582415776181</v>
+        <v>160.6486850241856</v>
       </c>
       <c r="C57">
-        <v>163.61540269791229</v>
+        <v>188.4303584882224</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -1193,13 +1178,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>325.03692097975579</v>
+        <v>321.05606986942331</v>
       </c>
       <c r="B58">
-        <v>206.63494380186521</v>
+        <v>172.75416058665559</v>
       </c>
       <c r="C58">
-        <v>157.30543537970959</v>
+        <v>172.15400082484291</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1207,13 +1192,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>322.00621112022048</v>
+        <v>319.00626953086669</v>
       </c>
       <c r="B59">
-        <v>184.7647152461746</v>
+        <v>187.41664813991309</v>
       </c>
       <c r="C59">
-        <v>182.21415971323421</v>
+        <v>175.025712396779</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1221,13 +1206,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>318.48704840228589</v>
+        <v>317.52952618614847</v>
       </c>
       <c r="B60">
-        <v>197.29419656948861</v>
+        <v>159.81239000778379</v>
       </c>
       <c r="C60">
-        <v>148.31385639919151</v>
+        <v>174.9428478103635</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1235,13 +1220,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>321.37517016720511</v>
+        <v>322.69180342859647</v>
       </c>
       <c r="B61">
-        <v>167.04490414256881</v>
+        <v>149.3452376207558</v>
       </c>
       <c r="C61">
-        <v>181.24568960391861</v>
+        <v>199.96499693696401</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1249,13 +1234,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>314.37716202039871</v>
+        <v>322.69180342859647</v>
       </c>
       <c r="B62">
-        <v>176.72577627499621</v>
+        <v>151.22169156572741</v>
       </c>
       <c r="C62">
-        <v>153.8343264684446</v>
+        <v>198.15650380444239</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1263,13 +1248,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>320.50273009757649</v>
+        <v>318.7883310285996</v>
       </c>
       <c r="B63">
-        <v>185.80904176062049</v>
+        <v>195.616972678753</v>
       </c>
       <c r="C63">
-        <v>168.07438829280329</v>
+        <v>151.16877984557519</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1277,13 +1262,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>319.13163428278312</v>
+        <v>320.91431878306707</v>
       </c>
       <c r="B64">
-        <v>165.13025161974409</v>
+        <v>170.55790805471321</v>
       </c>
       <c r="C64">
-        <v>176.13914953808541</v>
+        <v>176.64653973401241</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1291,167 +1276,167 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>308.93364983439398</v>
+        <v>265.00754706234312</v>
       </c>
       <c r="B65">
-        <v>160.09996876951601</v>
+        <v>139.4309865130416</v>
       </c>
       <c r="C65">
-        <v>163.41358572652399</v>
+        <v>160.5801980320114</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>313.26985172531357</v>
+        <v>265</v>
       </c>
       <c r="B66">
-        <v>177.58941409892651</v>
+        <v>147.35331689514149</v>
       </c>
       <c r="C66">
-        <v>170.98537949193201</v>
+        <v>155.2353052626882</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>311.7081968765018</v>
+        <v>261.00766272276383</v>
       </c>
       <c r="B67">
-        <v>178.01685313475241</v>
+        <v>147.35331689514149</v>
       </c>
       <c r="C67">
-        <v>163.81697103780181</v>
+        <v>152.68922686293229</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>321.82293268193303</v>
+        <v>264.51843035977657</v>
       </c>
       <c r="B68">
-        <v>172.52536045463</v>
+        <v>139.7175722663402</v>
       </c>
       <c r="C68">
-        <v>181.17670931993439</v>
+        <v>148.71785366928879</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>316.93847983480958</v>
+        <v>264.85090145211888</v>
       </c>
       <c r="B69">
-        <v>186.6815470259447</v>
+        <v>161.89502771858059</v>
       </c>
       <c r="C69">
-        <v>161.98765385053269</v>
+        <v>127.7810627597063</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>307.88309469667217</v>
+        <v>264.18554086096378</v>
       </c>
       <c r="B70">
-        <v>199.44422779313521</v>
+        <v>144.06248644251559</v>
       </c>
       <c r="C70">
-        <v>173.55690709389819</v>
+        <v>148.66068747318499</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>299.55300031880842</v>
+        <v>264.82069405543058</v>
       </c>
       <c r="B71">
-        <v>136.4734406395618</v>
+        <v>152.12166183683371</v>
       </c>
       <c r="C71">
-        <v>174.00287353949071</v>
+        <v>140.90067423543439</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>325.29525050329278</v>
+        <v>261.03064954139012</v>
       </c>
       <c r="B72">
-        <v>181.22085972646749</v>
+        <v>143.27944723511459</v>
       </c>
       <c r="C72">
-        <v>177.0028248362155</v>
+        <v>136.3084736911099</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>319.7577207824699</v>
+        <v>262.88020085202311</v>
       </c>
       <c r="B73">
-        <v>185.84133017173551</v>
+        <v>137.27709204379289</v>
       </c>
       <c r="C73">
-        <v>181.13530854032851</v>
+        <v>148.71785366928879</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>319.05642134268351</v>
+        <v>298.82770955853482</v>
       </c>
       <c r="B74">
-        <v>176.87566254292869</v>
+        <v>168.96153408394471</v>
       </c>
       <c r="C74">
-        <v>183.80968418448469</v>
+        <v>157.4357011608231</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>319.05642134268351</v>
+        <v>299.5496619927988</v>
       </c>
       <c r="B75">
-        <v>170.18813119603851</v>
+        <v>171.42053552593981</v>
       </c>
       <c r="C75">
-        <v>171.39719951037711</v>
+        <v>162.24980739587949</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>276.97292286431178</v>
+        <v>295.06101064017253</v>
       </c>
       <c r="B76">
-        <v>157.17506163510799</v>
+        <v>172.04650534085249</v>
       </c>
       <c r="C76">
-        <v>143.0314650697531</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1459,13 +1444,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>275.46506130542218</v>
+        <v>301.59907161660828</v>
       </c>
       <c r="B77">
-        <v>168.8075827680735</v>
+        <v>175.90054007876159</v>
       </c>
       <c r="C77">
-        <v>124.3261838873855</v>
+        <v>161.1365880239494</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1473,13 +1458,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>277.1154993860863</v>
+        <v>299.29584026511287</v>
       </c>
       <c r="B78">
-        <v>178.57211428439771</v>
+        <v>157.54681843820271</v>
       </c>
       <c r="C78">
-        <v>119</v>
+        <v>174.90854753270349</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -1487,13 +1472,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>277.75168766363959</v>
+        <v>302.20853727186471</v>
       </c>
       <c r="B79">
-        <v>164.9242250247064</v>
+        <v>190.9685838037241</v>
       </c>
       <c r="C79">
-        <v>139.52060779684129</v>
+        <v>144.08677940741131</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -1501,13 +1486,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>280.67240690883739</v>
+        <v>301.05979472523393</v>
       </c>
       <c r="B80">
-        <v>177.22866585290319</v>
+        <v>164.79381056338249</v>
       </c>
       <c r="C80">
-        <v>137.64083696345361</v>
+        <v>161.55494421403509</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -1515,13 +1500,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>278.11508409289848</v>
+        <v>299.69651315956281</v>
       </c>
       <c r="B81">
-        <v>172.53985046939161</v>
+        <v>166.38810053606599</v>
       </c>
       <c r="C81">
-        <v>151.26797413861269</v>
+        <v>168.6683135624472</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -1529,13 +1514,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>276.37112729082253</v>
+        <v>299.81661061388837</v>
       </c>
       <c r="B82">
-        <v>170.17931719219001</v>
+        <v>174.61385970191481</v>
       </c>
       <c r="C82">
-        <v>128.22636234409831</v>
+        <v>167.86899654194639</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -1543,13 +1528,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>280.713376952364</v>
+        <v>299.53630831670472</v>
       </c>
       <c r="B83">
-        <v>185.16209115258991</v>
+        <v>166.5082580534671</v>
       </c>
       <c r="C83">
-        <v>116.46887996370531</v>
+        <v>165.5566368346494</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -1557,13 +1542,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>278.88707392061042</v>
+        <v>298.05033132006412</v>
       </c>
       <c r="B84">
-        <v>179.836036433191</v>
+        <v>158.11388300841901</v>
       </c>
       <c r="C84">
-        <v>135.76818478568529</v>
+        <v>165.02727047370081</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1571,13 +1556,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>279.30270317345662</v>
+        <v>278.72925931807009</v>
       </c>
       <c r="B85">
-        <v>163.0245380303223</v>
+        <v>165.9397481015323</v>
       </c>
       <c r="C85">
-        <v>148.3947438422264</v>
+        <v>138.97481786280559</v>
       </c>
       <c r="D85">
         <v>3</v>
@@ -1585,13 +1570,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>278.72925931807009</v>
+        <v>275.49591648516309</v>
       </c>
       <c r="B86">
-        <v>151.9539403898431</v>
+        <v>158.24032355881991</v>
       </c>
       <c r="C86">
-        <v>153.07514494521959</v>
+        <v>145.60906565183359</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1599,13 +1584,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>278.31277369175848</v>
+        <v>275.18175811634029</v>
       </c>
       <c r="B87">
-        <v>159.53056133543819</v>
+        <v>138.92443989449811</v>
       </c>
       <c r="C87">
-        <v>153.38839591051209</v>
+        <v>153.44380078712859</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -1613,13 +1598,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>274.33191575170389</v>
+        <v>276.32227561309639</v>
       </c>
       <c r="B88">
-        <v>147.2752525036029</v>
+        <v>138.69751259485511</v>
       </c>
       <c r="C88">
-        <v>159.42396306703711</v>
+        <v>169.18924315688631</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -1627,13 +1612,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>275.06544675767623</v>
+        <v>276.32227561309639</v>
       </c>
       <c r="B89">
-        <v>165.12419568312819</v>
+        <v>142.00352108310551</v>
       </c>
       <c r="C89">
-        <v>149.09393012460299</v>
+        <v>165.38742394753001</v>
       </c>
       <c r="D89">
         <v>3</v>
@@ -1641,13 +1626,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>274.5359721420856</v>
+        <v>277.01624501101008</v>
       </c>
       <c r="B90">
-        <v>150.04665940966501</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="C90">
-        <v>157.5436447464638</v>
+        <v>168.68017073740469</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -1655,13 +1640,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>277.18044664081202</v>
+        <v>277.01624501101008</v>
       </c>
       <c r="B91">
-        <v>172.23530416264839</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="C91">
-        <v>143.7567389724739</v>
+        <v>168.68017073740469</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -1669,13 +1654,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>277.72288346479479</v>
+        <v>278.98745491509112</v>
       </c>
       <c r="B92">
-        <v>159.84054554461451</v>
+        <v>144.5164350515193</v>
       </c>
       <c r="C92">
-        <v>149.04026301640769</v>
+        <v>166.41213898030401</v>
       </c>
       <c r="D92">
         <v>3</v>
@@ -1683,13 +1668,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>277.95323347642488</v>
+        <v>308.98867293154939</v>
       </c>
       <c r="B93">
-        <v>149.3452376207558</v>
+        <v>188.5338165953259</v>
       </c>
       <c r="C93">
-        <v>156.18578680533</v>
+        <v>154.3146136955279</v>
       </c>
       <c r="D93">
         <v>3</v>
@@ -1697,13 +1682,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>309.71277015970782</v>
+        <v>309.85480470697883</v>
       </c>
       <c r="B94">
-        <v>193.65174928205531</v>
+        <v>167.1406593262094</v>
       </c>
       <c r="C94">
-        <v>149.4021418855834</v>
+        <v>174.06320691059329</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -1711,13 +1696,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>310.35785796399608</v>
+        <v>307.10421683851882</v>
       </c>
       <c r="B95">
-        <v>194.58931111445969</v>
+        <v>176.70597047072289</v>
       </c>
       <c r="C95">
-        <v>150.37619492459569</v>
+        <v>168.60011862392031</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -1725,13 +1710,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>309.71277015970782</v>
+        <v>308.56117707838752</v>
       </c>
       <c r="B96">
-        <v>174.8628033630938</v>
+        <v>185.6475154695047</v>
       </c>
       <c r="C96">
-        <v>163.62457028209431</v>
+        <v>153.5740863557391</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -1739,13 +1724,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>309.46728421595708</v>
+        <v>307.23443817384788</v>
       </c>
       <c r="B97">
-        <v>168.96153408394471</v>
+        <v>150.2697574364183</v>
       </c>
       <c r="C97">
-        <v>169.0976049505137</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -1753,141 +1738,15 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>309.58359129643799</v>
+        <v>308.76852171165382</v>
       </c>
       <c r="B98">
-        <v>174.00287353949071</v>
+        <v>158.927656498169</v>
       </c>
       <c r="C98">
-        <v>166.9401090211696</v>
+        <v>182.1867174082677</v>
       </c>
       <c r="D98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>305</v>
-      </c>
-      <c r="B99">
-        <v>174.1522322567242</v>
-      </c>
-      <c r="C99">
-        <v>175.025712396779</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>308.36666486505959</v>
-      </c>
-      <c r="B100">
-        <v>163.62457028209431</v>
-      </c>
-      <c r="C100">
-        <v>176.87566254292869</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>309.23453882126432</v>
-      </c>
-      <c r="B101">
-        <v>172.20046457544771</v>
-      </c>
-      <c r="C101">
-        <v>166.41213898030401</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>308.60006480880719</v>
-      </c>
-      <c r="B102">
-        <v>155.93909067324969</v>
-      </c>
-      <c r="C102">
-        <v>181.6177304119837</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>308.60006480880719</v>
-      </c>
-      <c r="B103">
-        <v>171.29214809792069</v>
-      </c>
-      <c r="C103">
-        <v>168.07438829280329</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>309.02588888311612</v>
-      </c>
-      <c r="B104">
-        <v>171.3300907604966</v>
-      </c>
-      <c r="C104">
-        <v>172.17723426748381</v>
-      </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>311.20732639190868</v>
-      </c>
-      <c r="B105">
-        <v>160.3527361787132</v>
-      </c>
-      <c r="C105">
-        <v>183.07648674802559</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>308.76852171165382</v>
-      </c>
-      <c r="B106">
-        <v>189.1903803051307</v>
-      </c>
-      <c r="C106">
-        <v>149.1207564358497</v>
-      </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>307.00651458886023</v>
-      </c>
-      <c r="B107">
-        <v>174.63103962354461</v>
-      </c>
-      <c r="C107">
-        <v>154.3146136955279</v>
-      </c>
-      <c r="D107">
         <v>3</v>
       </c>
     </row>

--- a/SizeDetect/new_datasets/train/size_data.xlsx
+++ b/SizeDetect/new_datasets/train/size_data.xlsx
@@ -370,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,10 +397,10 @@
         <v>259.00772189261079</v>
       </c>
       <c r="B2">
-        <v>148</v>
+        <v>154.40207252495031</v>
       </c>
       <c r="C2">
-        <v>127.58134659894451</v>
+        <v>120.1540677630183</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -408,13 +408,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>261.12257658042518</v>
+        <v>260.01923005808629</v>
       </c>
       <c r="B3">
-        <v>144.4749113168096</v>
+        <v>142.94054708164509</v>
       </c>
       <c r="C3">
-        <v>152.68922686293229</v>
+        <v>140.0642709615839</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -422,13 +422,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>257.4975728040946</v>
+        <v>261.62950903902259</v>
       </c>
       <c r="B4">
-        <v>155.24174696260019</v>
+        <v>147.95945390545339</v>
       </c>
       <c r="C4">
-        <v>120.76837334335509</v>
+        <v>135.15176654413361</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -436,13 +436,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>261.62950903902259</v>
+        <v>259.37231926325518</v>
       </c>
       <c r="B5">
-        <v>154.2368308803056</v>
+        <v>142.61837188805649</v>
       </c>
       <c r="C5">
-        <v>136.9561973771176</v>
+        <v>138.57128129594531</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -450,13 +450,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>255.03137061938091</v>
+        <v>259.64976410541948</v>
       </c>
       <c r="B6">
-        <v>141.38246001537809</v>
+        <v>145.0655024463087</v>
       </c>
       <c r="C6">
-        <v>125.8729518204765</v>
+        <v>138.97481786280559</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -464,13 +464,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>259.37231926325518</v>
+        <v>259.12352266824399</v>
       </c>
       <c r="B7">
-        <v>129.0348790056394</v>
+        <v>142.94054708164509</v>
       </c>
       <c r="C7">
-        <v>157.17506163510799</v>
+        <v>133.5402561027947</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -478,13 +478,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>260.20376630633149</v>
+        <v>257.00778198334768</v>
       </c>
       <c r="B8">
-        <v>129.65338406690361</v>
+        <v>142.35870187663281</v>
       </c>
       <c r="C8">
-        <v>153.84407690905749</v>
+        <v>154.3534904043313</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -492,13 +492,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>259.94230129011322</v>
+        <v>258.60007733950891</v>
       </c>
       <c r="B9">
-        <v>135.6244815658294</v>
+        <v>137.90576492663391</v>
       </c>
       <c r="C9">
-        <v>148.43180252223581</v>
+        <v>141.2232275512778</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>261.62950903902259</v>
+        <v>257.19447894540821</v>
       </c>
       <c r="B10">
-        <v>144.06248644251559</v>
+        <v>128.03515142334939</v>
       </c>
       <c r="C10">
-        <v>141.20906486483079</v>
+        <v>146.16429112474771</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -520,13 +520,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>257.0311265197272</v>
+        <v>259.03088618927279</v>
       </c>
       <c r="B11">
-        <v>157.06368135250111</v>
+        <v>119.92080720208649</v>
       </c>
       <c r="C11">
-        <v>138.57128129594531</v>
+        <v>156.8948692596415</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -534,13 +534,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>257.0311265197272</v>
+        <v>258.4143958838207</v>
       </c>
       <c r="B12">
-        <v>157.06368135250111</v>
+        <v>134.1118935814419</v>
       </c>
       <c r="C12">
-        <v>138.57128129594531</v>
+        <v>148.08105888330209</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -548,13 +548,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>253.87004549572211</v>
+        <v>258.2750471880704</v>
       </c>
       <c r="B13">
-        <v>136.70405992508049</v>
+        <v>141.2232275512778</v>
       </c>
       <c r="C13">
-        <v>142.77955035648489</v>
+        <v>136.85759021698431</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -562,13 +562,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>251.87695408671269</v>
+        <v>257.12448347055562</v>
       </c>
       <c r="B14">
-        <v>141.15594213493111</v>
+        <v>150.54567413247051</v>
       </c>
       <c r="C14">
-        <v>138.35100288758301</v>
+        <v>122.4295715911805</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -576,13 +576,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>255.40947515705051</v>
+        <v>259.94230129011322</v>
       </c>
       <c r="B15">
-        <v>140.90067423543439</v>
+        <v>111.1260545506768</v>
       </c>
       <c r="C15">
-        <v>141.38246001537809</v>
+        <v>165.1090548698042</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -590,13 +590,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>254.89213404889529</v>
+        <v>255.33115751901491</v>
       </c>
       <c r="B16">
-        <v>136.45878498652991</v>
+        <v>167.9434428609822</v>
       </c>
       <c r="C16">
-        <v>145.79780519610031</v>
+        <v>114.52947218947619</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -604,13 +604,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>255.86324472264479</v>
+        <v>253.87004549572211</v>
       </c>
       <c r="B17">
-        <v>145.6193668438371</v>
+        <v>167.9434428609822</v>
       </c>
       <c r="C17">
-        <v>139.08630414242799</v>
+        <v>109.165012710117</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -618,13 +618,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>254.43663258265309</v>
+        <v>254.04330339530699</v>
       </c>
       <c r="B18">
-        <v>135.76818478568529</v>
+        <v>144.84474446799919</v>
       </c>
       <c r="C18">
-        <v>146.63219291819931</v>
+        <v>133.09395177843359</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>254.6566315649369</v>
+        <v>253.04940229133121</v>
       </c>
       <c r="B19">
-        <v>141.38246001537809</v>
+        <v>139.84634424967999</v>
       </c>
       <c r="C19">
-        <v>143.80890097626079</v>
+        <v>135.51752654177241</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -646,13 +646,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>255.40947515705051</v>
+        <v>254.43663258265309</v>
       </c>
       <c r="B20">
-        <v>151.71684151734769</v>
+        <v>153.47312468311841</v>
       </c>
       <c r="C20">
-        <v>125.8729518204765</v>
+        <v>126.6491215919005</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>255.69122002915941</v>
+        <v>255.1430971043504</v>
       </c>
       <c r="B21">
-        <v>150.23315213360871</v>
+        <v>122.7721466783081</v>
       </c>
       <c r="C21">
-        <v>130.29197979921861</v>
+        <v>161.74362429474621</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -674,13 +674,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>258.86289807540982</v>
+        <v>250.9222987301049</v>
       </c>
       <c r="B22">
+        <v>136.61625086350449</v>
+      </c>
+      <c r="C22">
         <v>139.60659010232999</v>
-      </c>
-      <c r="C22">
-        <v>144.24978336205569</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -688,1065 +688,2927 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>291.10994486619649</v>
+        <v>253.77549133042771</v>
       </c>
       <c r="B23">
-        <v>177.77513886930311</v>
+        <v>133.40539719216761</v>
       </c>
       <c r="C23">
-        <v>135.05924625881781</v>
+        <v>146.5366848267013</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>293</v>
+        <v>253.57050301641951</v>
       </c>
       <c r="B24">
-        <v>184.70787747142779</v>
+        <v>157.49285698088019</v>
       </c>
       <c r="C24">
-        <v>150.63200191194429</v>
+        <v>121.7949095816406</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>293.00682585905741</v>
+        <v>255.00784301664129</v>
       </c>
       <c r="B25">
-        <v>177.08754896942921</v>
+        <v>158.6600138661282</v>
       </c>
       <c r="C25">
-        <v>137.80058055030099</v>
+        <v>109.5627673984187</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>295.89525173615073</v>
+        <v>254.011810749028</v>
       </c>
       <c r="B26">
-        <v>167.04490414256881</v>
+        <v>119.8540779448075</v>
       </c>
       <c r="C26">
-        <v>152.53196386331621</v>
+        <v>171.42053552593981</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>294.24139749532179</v>
+        <v>259.32604959779877</v>
       </c>
       <c r="B27">
-        <v>166.20770138594659</v>
+        <v>127.63228431709589</v>
       </c>
       <c r="C27">
-        <v>159.17600321656531</v>
+        <v>156.2177966814281</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>291.02749011047052</v>
+        <v>256.22255950637913</v>
       </c>
       <c r="B28">
-        <v>166.8322510787408</v>
+        <v>131.82564242210239</v>
       </c>
       <c r="C28">
-        <v>164.3471934655411</v>
+        <v>156.8693724090206</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>292.18145047213392</v>
+        <v>253.42849090029321</v>
       </c>
       <c r="B29">
-        <v>191.23022773609819</v>
+        <v>116.2970334961301</v>
       </c>
       <c r="C29">
-        <v>131.5028516801062</v>
+        <v>168.94081803992779</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>291.89381630997258</v>
+        <v>252.90709756746651</v>
       </c>
       <c r="B30">
-        <v>173.11845655504209</v>
+        <v>136.61625086350449</v>
       </c>
       <c r="C30">
-        <v>141.7603611733548</v>
+        <v>141.315250415516</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>293</v>
+        <v>251.54323684011061</v>
       </c>
       <c r="B31">
-        <v>132.50283015845361</v>
+        <v>132.54810447531869</v>
       </c>
       <c r="C31">
-        <v>180.27756377319949</v>
+        <v>148.07092894960849</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>295.32693747777228</v>
+        <v>255.00784301664129</v>
       </c>
       <c r="B32">
-        <v>177.6119365358083</v>
+        <v>150.54567413247051</v>
       </c>
       <c r="C32">
-        <v>137.3608386695422</v>
+        <v>122.7721466783081</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>291.49614062625261</v>
+        <v>253.0711362443374</v>
       </c>
       <c r="B33">
-        <v>160.3527361787132</v>
+        <v>140.16062214473791</v>
       </c>
       <c r="C33">
-        <v>166.60432167263849</v>
+        <v>145.3616180427282</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>293.10919466983631</v>
+        <v>249.46743274423619</v>
       </c>
       <c r="B34">
-        <v>172.04650534085249</v>
+        <v>142.61837188805649</v>
       </c>
       <c r="C34">
-        <v>142.2708684165525</v>
+        <v>130.08458786497351</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>295.16944286290891</v>
+        <v>253.1600284405103</v>
       </c>
       <c r="B35">
-        <v>177.77513886930311</v>
+        <v>139.28388277184121</v>
       </c>
       <c r="C35">
-        <v>139.53135848260061</v>
+        <v>136.85759021698431</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>293.17059879871988</v>
+        <v>249.098374141623</v>
       </c>
       <c r="B36">
-        <v>177.77513886930311</v>
+        <v>161.4465855941215</v>
       </c>
       <c r="C36">
-        <v>137.7425134081704</v>
+        <v>112.8051417267848</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>295.38110975483858</v>
+        <v>253.0079050148434</v>
       </c>
       <c r="B37">
-        <v>178.63930138690091</v>
+        <v>142.94054708164509</v>
       </c>
       <c r="C37">
-        <v>152.32202729743321</v>
+        <v>125.7179382586272</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>292.24989307098127</v>
+        <v>251.12745767836699</v>
       </c>
       <c r="B38">
-        <v>177.77513886930311</v>
+        <v>145.6193668438371</v>
       </c>
       <c r="C38">
-        <v>144.50605523645021</v>
+        <v>140.89002803605371</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>293.87412271242943</v>
+        <v>257.0311265197272</v>
       </c>
       <c r="B39">
-        <v>154.87091398968369</v>
+        <v>118.9663818059539</v>
       </c>
       <c r="C39">
-        <v>163.95426191471819</v>
+        <v>160.11246047700351</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>294.15982050579242</v>
+        <v>259.29519856719293</v>
       </c>
       <c r="B40">
-        <v>174.9428478103635</v>
+        <v>156.41611170208779</v>
       </c>
       <c r="C40">
-        <v>142.72000560538109</v>
+        <v>124.19339757008019</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>294.63536787018631</v>
+        <v>256.22255950637913</v>
       </c>
       <c r="B41">
-        <v>152.81688388394781</v>
+        <v>123.4058345460214</v>
       </c>
       <c r="C41">
-        <v>167.4425274534519</v>
+        <v>148.69095466772691</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>315.10157092594761</v>
+        <v>255.1430971043504</v>
       </c>
       <c r="B42">
-        <v>209.1721778822413</v>
+        <v>148.71785366928879</v>
       </c>
       <c r="C42">
-        <v>153.0032679389561</v>
+        <v>135.07405376311169</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>315.93986769637041</v>
+        <v>254.04330339530699</v>
       </c>
       <c r="B43">
-        <v>185.44001725625461</v>
+        <v>143.73586887064761</v>
       </c>
       <c r="C43">
-        <v>165.0757401921918</v>
+        <v>140.66271716414411</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>315.10157092594761</v>
+        <v>254.90782647851361</v>
       </c>
       <c r="B44">
-        <v>185.39687160251651</v>
+        <v>144.04513181638589</v>
       </c>
       <c r="C44">
-        <v>151.71354586852161</v>
+        <v>140.2462120700591</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>317.6570477732235</v>
+        <v>255.98828098176679</v>
       </c>
       <c r="B45">
-        <v>153.1176018620981</v>
+        <v>142.3024947075771</v>
       </c>
       <c r="C45">
-        <v>194.51735141112729</v>
+        <v>142.3376267892647</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>318.48704840228589</v>
+        <v>255.69122002915941</v>
       </c>
       <c r="B46">
-        <v>169.81460479004741</v>
+        <v>154.434452114805</v>
       </c>
       <c r="C46">
-        <v>184.16568627190031</v>
+        <v>123.96773773849389</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>315.67388235329202</v>
+        <v>255.70686341981519</v>
       </c>
       <c r="B47">
-        <v>155.41557193537591</v>
+        <v>130.92364186807521</v>
       </c>
       <c r="C47">
-        <v>197.52468200202219</v>
+        <v>150.7215976560758</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>319.49491388752972</v>
+        <v>255.69122002915941</v>
       </c>
       <c r="B48">
-        <v>183.9918476454867</v>
+        <v>134.10443691392169</v>
       </c>
       <c r="C48">
-        <v>181.51583952922681</v>
+        <v>146.8128059809498</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>316.33210396670142</v>
+        <v>261.09385285755008</v>
       </c>
       <c r="B49">
-        <v>170.8156901458411</v>
+        <v>156.67801377347109</v>
       </c>
       <c r="C49">
-        <v>177.73013250431109</v>
+        <v>128.4133949399361</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>321.37517016720511</v>
+        <v>261.84346468835162</v>
       </c>
       <c r="B50">
-        <v>150.23315213360871</v>
+        <v>170.59015211904821</v>
       </c>
       <c r="C50">
-        <v>214.5600149142426</v>
+        <v>127.6126952932192</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>318.5121661726597</v>
+        <v>261.00766272276383</v>
       </c>
       <c r="B51">
-        <v>141.52384958020329</v>
+        <v>174.89711261195819</v>
       </c>
       <c r="C51">
-        <v>218.7167117528974</v>
+        <v>128.6001555209013</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>318.14776441144448</v>
+        <v>261.21638539724108</v>
       </c>
       <c r="B52">
-        <v>186.60117898877269</v>
+        <v>170.23806859806649</v>
       </c>
       <c r="C52">
-        <v>166.73931749890309</v>
+        <v>125.5428213797985</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>317.00630908548169</v>
+        <v>260.2498799231231</v>
       </c>
       <c r="B53">
-        <v>204.97804760510331</v>
+        <v>171.42053552593981</v>
       </c>
       <c r="C53">
-        <v>135.95955280891451</v>
+        <v>124.3905141077888</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>313.40867888429642</v>
+        <v>260.84861510078991</v>
       </c>
       <c r="B54">
-        <v>176.5106229097841</v>
+        <v>166.39711535961189</v>
       </c>
       <c r="C54">
-        <v>153.44380078712859</v>
+        <v>119.0378091196238</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>317.10093030453248</v>
+        <v>260.57244673986543</v>
       </c>
       <c r="B55">
-        <v>181.6480112745526</v>
+        <v>154.98387012847499</v>
       </c>
       <c r="C55">
-        <v>157.30543537970959</v>
+        <v>140.71957930579529</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>317.98427634082788</v>
+        <v>261.09385285755008</v>
       </c>
       <c r="B56">
-        <v>199.21094347449889</v>
+        <v>176.87566254292869</v>
       </c>
       <c r="C56">
-        <v>160.10309178776029</v>
+        <v>118.0720119249266</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>319.3900436770063</v>
+        <v>261.19150062741318</v>
       </c>
       <c r="B57">
-        <v>160.6486850241856</v>
+        <v>121.7086685491218</v>
       </c>
       <c r="C57">
-        <v>188.4303584882224</v>
+        <v>161.3071604114337</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>321.05606986942331</v>
+        <v>259.64976410541948</v>
       </c>
       <c r="B58">
-        <v>172.75416058665559</v>
+        <v>119.1007976463634</v>
       </c>
       <c r="C58">
-        <v>172.15400082484291</v>
+        <v>170.6722004311188</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>319.00626953086669</v>
+        <v>260.61849512266008</v>
       </c>
       <c r="B59">
-        <v>187.41664813991309</v>
+        <v>127.8827588066507</v>
       </c>
       <c r="C59">
-        <v>175.025712396779</v>
+        <v>160.16241756417139</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>317.52952618614847</v>
+        <v>260.01923005808629</v>
       </c>
       <c r="B60">
-        <v>159.81239000778379</v>
+        <v>130.08458786497351</v>
       </c>
       <c r="C60">
-        <v>174.9428478103635</v>
+        <v>157.49285698088019</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>322.69180342859647</v>
+        <v>293.027302482209</v>
       </c>
       <c r="B61">
-        <v>149.3452376207558</v>
+        <v>168.60901518009049</v>
       </c>
       <c r="C61">
-        <v>199.96499693696401</v>
+        <v>164.3471934655411</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>322.69180342859647</v>
+        <v>291.10994486619649</v>
       </c>
       <c r="B62">
-        <v>151.22169156572741</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="C62">
-        <v>198.15650380444239</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>318.7883310285996</v>
+        <v>293.10919466983631</v>
       </c>
       <c r="B63">
-        <v>195.616972678753</v>
+        <v>164.43843832875569</v>
       </c>
       <c r="C63">
-        <v>151.16877984557519</v>
+        <v>149.56269588369949</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>320.91431878306707</v>
+        <v>292.64654448668961</v>
       </c>
       <c r="B64">
-        <v>170.55790805471321</v>
+        <v>185.6475154695047</v>
       </c>
       <c r="C64">
-        <v>176.64653973401241</v>
+        <v>132.0340865079923</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>265.00754706234312</v>
+        <v>292.79685790663808</v>
       </c>
       <c r="B65">
-        <v>139.4309865130416</v>
+        <v>164.55090397807001</v>
       </c>
       <c r="C65">
-        <v>160.5801980320114</v>
+        <v>151.47607071745691</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>265</v>
+        <v>292.64654448668961</v>
       </c>
       <c r="B66">
-        <v>147.35331689514149</v>
+        <v>152.48606493709519</v>
       </c>
       <c r="C66">
-        <v>155.2353052626882</v>
+        <v>163.24827717314511</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>261.00766272276383</v>
+        <v>291.06184909740398</v>
       </c>
       <c r="B67">
-        <v>147.35331689514149</v>
+        <v>163.21764610482529</v>
       </c>
       <c r="C67">
-        <v>152.68922686293229</v>
+        <v>145.3994497926316</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>264.51843035977657</v>
+        <v>289</v>
       </c>
       <c r="B68">
-        <v>139.7175722663402</v>
+        <v>161.74362429474621</v>
       </c>
       <c r="C68">
-        <v>148.71785366928879</v>
+        <v>169.59363195591979</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>264.85090145211888</v>
+        <v>293.41097457320848</v>
       </c>
       <c r="B69">
-        <v>161.89502771858059</v>
+        <v>167.80047675736799</v>
       </c>
       <c r="C69">
-        <v>127.7810627597063</v>
+        <v>158.14234094637649</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>264.18554086096378</v>
+        <v>294.15982050579242</v>
       </c>
       <c r="B70">
-        <v>144.06248644251559</v>
+        <v>163.93291310777099</v>
       </c>
       <c r="C70">
-        <v>148.66068747318499</v>
+        <v>163.81697103780181</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>264.82069405543058</v>
+        <v>294.63536787018631</v>
       </c>
       <c r="B71">
-        <v>152.12166183683371</v>
+        <v>158.14550262337531</v>
       </c>
       <c r="C71">
-        <v>140.90067423543439</v>
+        <v>163.21764610482529</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>261.03064954139012</v>
+        <v>292.07190895394228</v>
       </c>
       <c r="B72">
-        <v>143.27944723511459</v>
+        <v>157.85119575093501</v>
       </c>
       <c r="C72">
-        <v>136.3084736911099</v>
+        <v>156.97452022541751</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>262.88020085202311</v>
+        <v>293.10919466983631</v>
       </c>
       <c r="B73">
-        <v>137.27709204379289</v>
+        <v>140.45995870709919</v>
       </c>
       <c r="C73">
-        <v>148.71785366928879</v>
+        <v>173.95401691251629</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>298.82770955853482</v>
+        <v>293.46550052774518</v>
       </c>
       <c r="B74">
-        <v>168.96153408394471</v>
+        <v>136.9707998078423</v>
       </c>
       <c r="C74">
-        <v>157.4357011608231</v>
+        <v>182.3321145602167</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>299.5496619927988</v>
+        <v>294.15982050579242</v>
       </c>
       <c r="B75">
-        <v>171.42053552593981</v>
+        <v>162.8649747490233</v>
       </c>
       <c r="C75">
-        <v>162.24980739587949</v>
+        <v>164.7573974060042</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>295.06101064017253</v>
+        <v>294.06461874900901</v>
       </c>
       <c r="B76">
-        <v>172.04650534085249</v>
+        <v>137.2333778641333</v>
       </c>
       <c r="C76">
-        <v>143.265487818944</v>
+        <v>182.98907071188711</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>301.59907161660828</v>
+        <v>289.02768033529247</v>
       </c>
       <c r="B77">
-        <v>175.90054007876159</v>
+        <v>180.95303258028031</v>
       </c>
       <c r="C77">
-        <v>161.1365880239494</v>
+        <v>132.3820229487373</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>299.29584026511287</v>
+        <v>287.93402021991079</v>
       </c>
       <c r="B78">
-        <v>157.54681843820271</v>
+        <v>183.07648674802559</v>
       </c>
       <c r="C78">
-        <v>174.90854753270349</v>
+        <v>143.265487818944</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>302.20853727186471</v>
+        <v>286.47163908491882</v>
       </c>
       <c r="B79">
-        <v>190.9685838037241</v>
+        <v>163.19313711060281</v>
       </c>
       <c r="C79">
-        <v>144.08677940741131</v>
+        <v>155.0806241927082</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>301.05979472523393</v>
+        <v>289.18160384090822</v>
       </c>
       <c r="B80">
-        <v>164.79381056338249</v>
+        <v>185.27007313648909</v>
       </c>
       <c r="C80">
-        <v>161.55494421403509</v>
+        <v>141.69333082400169</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>299.69651315956281</v>
+        <v>289.06227702694099</v>
       </c>
       <c r="B81">
-        <v>166.38810053606599</v>
+        <v>170.18813119603851</v>
       </c>
       <c r="C81">
-        <v>168.6683135624472</v>
+        <v>144.003472180361</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>299.81661061388837</v>
+        <v>289.83098523104809</v>
       </c>
       <c r="B82">
-        <v>174.61385970191481</v>
+        <v>180.3468879687143</v>
       </c>
       <c r="C82">
-        <v>167.86899654194639</v>
+        <v>138.03260484392811</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>299.53630831670472</v>
+        <v>289</v>
       </c>
       <c r="B83">
-        <v>166.5082580534671</v>
+        <v>167.86899654194639</v>
       </c>
       <c r="C83">
-        <v>165.5566368346494</v>
+        <v>146.7412689055127</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>298.05033132006412</v>
+        <v>289.9137802864845</v>
       </c>
       <c r="B84">
-        <v>158.11388300841901</v>
+        <v>167.6305461424021</v>
       </c>
       <c r="C84">
-        <v>165.02727047370081</v>
+        <v>148.2228052628879</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>278.72925931807009</v>
+        <v>290.07929950273939</v>
       </c>
       <c r="B85">
-        <v>165.9397481015323</v>
+        <v>169.54055562018189</v>
       </c>
       <c r="C85">
-        <v>138.97481786280559</v>
+        <v>147.4923726841493</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>275.49591648516309</v>
+        <v>289.63770472782028</v>
       </c>
       <c r="B86">
-        <v>158.24032355881991</v>
+        <v>167.04490414256881</v>
       </c>
       <c r="C86">
-        <v>145.60906565183359</v>
+        <v>153.94154734833609</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>275.18175811634029</v>
+        <v>288.26723712555332</v>
       </c>
       <c r="B87">
-        <v>138.92443989449811</v>
+        <v>157.4357011608231</v>
       </c>
       <c r="C87">
-        <v>153.44380078712859</v>
+        <v>161.3071604114337</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>276.32227561309639</v>
+        <v>289.63770472782028</v>
       </c>
       <c r="B88">
-        <v>138.69751259485511</v>
+        <v>156.77372228788849</v>
       </c>
       <c r="C88">
-        <v>169.18924315688631</v>
+        <v>160.16241756417139</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>276.32227561309639</v>
+        <v>286.33197516169929</v>
       </c>
       <c r="B89">
-        <v>142.00352108310551</v>
+        <v>139.8320421076657</v>
       </c>
       <c r="C89">
-        <v>165.38742394753001</v>
+        <v>166.20770138594659</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>277.01624501101008</v>
+        <v>290.07929950273939</v>
       </c>
       <c r="B90">
-        <v>143.9618004888797</v>
+        <v>163.37074401495511</v>
       </c>
       <c r="C90">
-        <v>168.68017073740469</v>
+        <v>155.6663097783204</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>277.01624501101008</v>
+        <v>288.26723712555332</v>
       </c>
       <c r="B91">
-        <v>143.9618004888797</v>
+        <v>156.41611170208779</v>
       </c>
       <c r="C91">
-        <v>168.68017073740469</v>
+        <v>160.6486850241856</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>278.98745491509112</v>
+        <v>293.38370779578071</v>
       </c>
       <c r="B92">
-        <v>144.5164350515193</v>
+        <v>145.08618128546911</v>
       </c>
       <c r="C92">
-        <v>166.41213898030401</v>
+        <v>186.81541692269411</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>308.98867293154939</v>
+        <v>290.83672395349248</v>
       </c>
       <c r="B93">
-        <v>188.5338165953259</v>
+        <v>142.1442928857856</v>
       </c>
       <c r="C93">
-        <v>154.3146136955279</v>
+        <v>180.6017718628475</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>309.85480470697883</v>
+        <v>293.90134399148297</v>
       </c>
       <c r="B94">
-        <v>167.1406593262094</v>
+        <v>180.27756377319949</v>
       </c>
       <c r="C94">
-        <v>174.06320691059329</v>
+        <v>148.38463532320321</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>307.10421683851882</v>
+        <v>293.027302482209</v>
       </c>
       <c r="B95">
-        <v>176.70597047072289</v>
+        <v>198.40614909825749</v>
       </c>
       <c r="C95">
-        <v>168.60011862392031</v>
+        <v>138.60014430006919</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>308.56117707838752</v>
+        <v>290.52022304824152</v>
       </c>
       <c r="B96">
-        <v>185.6475154695047</v>
+        <v>194.67151820438451</v>
       </c>
       <c r="C96">
-        <v>153.5740863557391</v>
+        <v>143.9618004888797</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>307.23443817384788</v>
+        <v>291.00687277107392</v>
       </c>
       <c r="B97">
-        <v>150.2697574364183</v>
+        <v>125.0959631642844</v>
       </c>
       <c r="C97">
-        <v>180.27756377319949</v>
+        <v>198.73600579663469</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
+        <v>290.50645431728361</v>
+      </c>
+      <c r="B98">
+        <v>154.61565250646521</v>
+      </c>
+      <c r="C98">
+        <v>168.40427548016709</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>287.65604460883492</v>
+      </c>
+      <c r="B99">
+        <v>157.0509471477329</v>
+      </c>
+      <c r="C99">
+        <v>165.38742394753001</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>287.14108030722463</v>
+      </c>
+      <c r="B100">
+        <v>176.49079296099271</v>
+      </c>
+      <c r="C100">
+        <v>146.93195704134621</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>287.12714953483589</v>
+      </c>
+      <c r="B101">
+        <v>142.2146265332789</v>
+      </c>
+      <c r="C101">
+        <v>181.03314613628081</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>285.95454184188088</v>
+      </c>
+      <c r="B102">
+        <v>156.78010077812809</v>
+      </c>
+      <c r="C102">
+        <v>173.00289014926889</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>287.85065572272021</v>
+      </c>
+      <c r="B103">
+        <v>171.86331778480249</v>
+      </c>
+      <c r="C103">
+        <v>139.01438774457841</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>286.09439001839928</v>
+      </c>
+      <c r="B104">
+        <v>153.1143363633856</v>
+      </c>
+      <c r="C104">
+        <v>169.0976049505137</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>286.72286270892317</v>
+      </c>
+      <c r="B105">
+        <v>164.29546554911369</v>
+      </c>
+      <c r="C105">
+        <v>159.76545308670461</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>285.02806879323299</v>
+      </c>
+      <c r="B106">
+        <v>151.21177202850311</v>
+      </c>
+      <c r="C106">
+        <v>159.69971822141699</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>297.06059987820669</v>
+      </c>
+      <c r="B107">
+        <v>135.95955280891451</v>
+      </c>
+      <c r="C107">
+        <v>188.67962264113211</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>297.4306641891518</v>
+      </c>
+      <c r="B108">
+        <v>160.6549096666516</v>
+      </c>
+      <c r="C108">
+        <v>181.6177304119837</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>299.60307074527788</v>
+      </c>
+      <c r="B109">
+        <v>153.44705927452631</v>
+      </c>
+      <c r="C109">
+        <v>187.5526592720029</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>296.42199648474133</v>
+      </c>
+      <c r="B110">
+        <v>148.51935900750451</v>
+      </c>
+      <c r="C110">
+        <v>174.72263734273241</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>296.62434155004883</v>
+      </c>
+      <c r="B111">
+        <v>152.29576487873851</v>
+      </c>
+      <c r="C111">
+        <v>178.986032974643</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>296.62434155004883</v>
+      </c>
+      <c r="B112">
+        <v>189.3066295722366</v>
+      </c>
+      <c r="C112">
+        <v>142.2708684165525</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>296.21951319924892</v>
+      </c>
+      <c r="B113">
+        <v>188.0983785150739</v>
+      </c>
+      <c r="C113">
+        <v>143.5862110371327</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>295.32693747777228</v>
+      </c>
+      <c r="B114">
+        <v>164.5600194457937</v>
+      </c>
+      <c r="C114">
+        <v>158.47397262642221</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>297.74149861918812</v>
+      </c>
+      <c r="B115">
+        <v>185.80904176062049</v>
+      </c>
+      <c r="C115">
+        <v>152.0690632574555</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>296</v>
+      </c>
+      <c r="B116">
+        <v>180</v>
+      </c>
+      <c r="C116">
+        <v>153</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>296.23301639081348</v>
+      </c>
+      <c r="B117">
+        <v>182.78949641595929</v>
+      </c>
+      <c r="C117">
+        <v>146.73104647619741</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>299.7365509910328</v>
+      </c>
+      <c r="B118">
+        <v>186.49664876345631</v>
+      </c>
+      <c r="C118">
+        <v>147.59742545180109</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>319.00626953086669</v>
+      </c>
+      <c r="B119">
+        <v>192.9248558377069</v>
+      </c>
+      <c r="C119">
+        <v>150.37619492459569</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>320.76471127603799</v>
+      </c>
+      <c r="B120">
+        <v>164.01219466856719</v>
+      </c>
+      <c r="C120">
+        <v>184.20097719610499</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>319.02507738420809</v>
+      </c>
+      <c r="B121">
+        <v>170.88007490635059</v>
+      </c>
+      <c r="C121">
+        <v>171.39719951037711</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>319.42761308315221</v>
+      </c>
+      <c r="B122">
+        <v>185.27007313648909</v>
+      </c>
+      <c r="C122">
+        <v>168.5852899869974</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>319.02507738420809</v>
+      </c>
+      <c r="B123">
+        <v>184.71870506258969</v>
+      </c>
+      <c r="C123">
+        <v>178.73443988218949</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>319.64042297556801</v>
+      </c>
+      <c r="B124">
+        <v>175.86358349584489</v>
+      </c>
+      <c r="C124">
+        <v>175.64168070250301</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>319</v>
+      </c>
+      <c r="B125">
+        <v>175.32826355154489</v>
+      </c>
+      <c r="C125">
+        <v>166.9401090211696</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>321.37517016720511</v>
+      </c>
+      <c r="B126">
+        <v>159.3988707613702</v>
+      </c>
+      <c r="C126">
+        <v>188.30294740125549</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>320.47776833970869</v>
+      </c>
+      <c r="B127">
+        <v>196.37973418863771</v>
+      </c>
+      <c r="C127">
+        <v>161.59517319524119</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>320.31546949843062</v>
+      </c>
+      <c r="B128">
+        <v>179.90275150758541</v>
+      </c>
+      <c r="C128">
+        <v>176.9773996870787</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>321</v>
+      </c>
+      <c r="B129">
+        <v>166.0120477555771</v>
+      </c>
+      <c r="C129">
+        <v>178.13758727455581</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>320</v>
+      </c>
+      <c r="B130">
+        <v>165</v>
+      </c>
+      <c r="C130">
+        <v>179</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>319.00626953086669</v>
+      </c>
+      <c r="B131">
+        <v>185.39687160251651</v>
+      </c>
+      <c r="C131">
+        <v>157.6990805299765</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>319.97812425226817</v>
+      </c>
+      <c r="B132">
+        <v>184.05433980213559</v>
+      </c>
+      <c r="C132">
+        <v>168.07736313971611</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>321.15572546663401</v>
+      </c>
+      <c r="B133">
+        <v>169.94410845922249</v>
+      </c>
+      <c r="C133">
+        <v>176.4766273476462</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>320.70235421649153</v>
+      </c>
+      <c r="B134">
+        <v>181.7965896269784</v>
+      </c>
+      <c r="C134">
+        <v>175.32826355154489</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>322.49341078539891</v>
+      </c>
+      <c r="B135">
+        <v>177.58941409892651</v>
+      </c>
+      <c r="C135">
+        <v>172.04650534085249</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>321</v>
+      </c>
+      <c r="B136">
+        <v>160.3277892319357</v>
+      </c>
+      <c r="C136">
+        <v>185.39687160251651</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>322.69180342859647</v>
+      </c>
+      <c r="B137">
+        <v>172.7946758439044</v>
+      </c>
+      <c r="C137">
+        <v>189.15602025841</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>320.31546949843062</v>
+      </c>
+      <c r="B138">
+        <v>164.00304875214971</v>
+      </c>
+      <c r="C138">
+        <v>192.02343606966309</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>320.70235421649153</v>
+      </c>
+      <c r="B139">
+        <v>170.30854353202599</v>
+      </c>
+      <c r="C139">
+        <v>189.8552079875609</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>320.91431878306707</v>
+      </c>
+      <c r="B140">
+        <v>166.68833192518309</v>
+      </c>
+      <c r="C140">
+        <v>185.80904176062049</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>321.1385993617086</v>
+      </c>
+      <c r="B141">
+        <v>178.67568385205641</v>
+      </c>
+      <c r="C141">
+        <v>177.552809045647</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>320.50273009757649</v>
+      </c>
+      <c r="B142">
+        <v>156.92354826475221</v>
+      </c>
+      <c r="C142">
+        <v>196.3593644316461</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>319.45265689926578</v>
+      </c>
+      <c r="B143">
+        <v>193.74467734624349</v>
+      </c>
+      <c r="C143">
+        <v>156.66843970627909</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>317.40510392871761</v>
+      </c>
+      <c r="B144">
+        <v>196.72569735548021</v>
+      </c>
+      <c r="C144">
+        <v>156.92354826475221</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>318.14776441144448</v>
+      </c>
+      <c r="B145">
+        <v>195.14353691577901</v>
+      </c>
+      <c r="C145">
+        <v>155.86211855354719</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>318.14776441144448</v>
+      </c>
+      <c r="B146">
+        <v>181.51583952922681</v>
+      </c>
+      <c r="C146">
+        <v>168.07736313971611</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>318.3237345847777</v>
+      </c>
+      <c r="B147">
+        <v>185.310550158376</v>
+      </c>
+      <c r="C147">
+        <v>165.6804152578089</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>318.3237345847777</v>
+      </c>
+      <c r="B148">
+        <v>184.6943420898431</v>
+      </c>
+      <c r="C148">
+        <v>164.63899902513981</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>318.56239577200569</v>
+      </c>
+      <c r="B149">
+        <v>199.58206332233371</v>
+      </c>
+      <c r="C149">
+        <v>152.30561381643159</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>317.00630908548169</v>
+      </c>
+      <c r="B150">
+        <v>204.9194963882158</v>
+      </c>
+      <c r="C150">
+        <v>138.65424623862049</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>318.14776441144448</v>
+      </c>
+      <c r="B151">
+        <v>156.92354826475221</v>
+      </c>
+      <c r="C151">
+        <v>192.7511348864125</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>319.30706224573242</v>
+      </c>
+      <c r="B152">
+        <v>160.10309178776029</v>
+      </c>
+      <c r="C152">
+        <v>185.310550158376</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>317.10093030453248</v>
+      </c>
+      <c r="B153">
+        <v>141.32586458253141</v>
+      </c>
+      <c r="C153">
+        <v>202.48456731316591</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>317.10093030453248</v>
+      </c>
+      <c r="B154">
+        <v>158.02847844613319</v>
+      </c>
+      <c r="C154">
+        <v>182.36227680087791</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>317.69482211707509</v>
+      </c>
+      <c r="B155">
+        <v>165.6804152578089</v>
+      </c>
+      <c r="C155">
+        <v>187.96808239698569</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>316.33210396670142</v>
+      </c>
+      <c r="B156">
+        <v>154.2011673107568</v>
+      </c>
+      <c r="C156">
+        <v>202.38577025077629</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>317.16557190212183</v>
+      </c>
+      <c r="B157">
+        <v>171.67993476233619</v>
+      </c>
+      <c r="C157">
+        <v>181.51583952922681</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>317.31687632396739</v>
+      </c>
+      <c r="B158">
+        <v>198.7687098111773</v>
+      </c>
+      <c r="C158">
+        <v>146.56397920362289</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>316.50908359792771</v>
+      </c>
+      <c r="B159">
+        <v>175.025712396779</v>
+      </c>
+      <c r="C159">
+        <v>172.80046296234281</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>316.50908359792771</v>
+      </c>
+      <c r="B160">
+        <v>169.0266251216062</v>
+      </c>
+      <c r="C160">
+        <v>183.52111595127141</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>316.50908359792771</v>
+      </c>
+      <c r="B161">
+        <v>150.2697574364183</v>
+      </c>
+      <c r="C161">
+        <v>210.83880098312079</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>277.36257858622531</v>
+      </c>
+      <c r="B162">
+        <v>167.09278859364341</v>
+      </c>
+      <c r="C162">
+        <v>135.80132547217639</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>275.00727263110701</v>
+      </c>
+      <c r="B163">
+        <v>173.080905937079</v>
+      </c>
+      <c r="C163">
+        <v>145.60906565183359</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>277.47792705006287</v>
+      </c>
+      <c r="B164">
+        <v>150</v>
+      </c>
+      <c r="C164">
+        <v>152.97712247261029</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>275.49591648516309</v>
+      </c>
+      <c r="B165">
+        <v>171.67702234137221</v>
+      </c>
+      <c r="C165">
+        <v>134.6291201783626</v>
+      </c>
+      <c r="D165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>276.3656997530627</v>
+      </c>
+      <c r="B166">
+        <v>168.07438829280329</v>
+      </c>
+      <c r="C166">
+        <v>142.0880009008502</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>275.00727263110701</v>
+      </c>
+      <c r="B167">
+        <v>157.06368135250111</v>
+      </c>
+      <c r="C167">
+        <v>155.2353052626882</v>
+      </c>
+      <c r="D167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>277.21832551258223</v>
+      </c>
+      <c r="B168">
+        <v>165.9397481015323</v>
+      </c>
+      <c r="C168">
+        <v>139.52060779684129</v>
+      </c>
+      <c r="D168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>275.49591648516309</v>
+      </c>
+      <c r="B169">
+        <v>165.49622352186771</v>
+      </c>
+      <c r="C169">
+        <v>139.5170240508304</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>275.35613303502072</v>
+      </c>
+      <c r="B170">
+        <v>169.6850022836432</v>
+      </c>
+      <c r="C170">
+        <v>144.53373308677811</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>277.01624501101008</v>
+      </c>
+      <c r="B171">
+        <v>175.86642658563349</v>
+      </c>
+      <c r="C171">
+        <v>133.89921583041479</v>
+      </c>
+      <c r="D171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>275</v>
+      </c>
+      <c r="B172">
+        <v>173.080905937079</v>
+      </c>
+      <c r="C172">
+        <v>144.50605523645021</v>
+      </c>
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>274.98727243274368</v>
+      </c>
+      <c r="B173">
+        <v>142.02112518917741</v>
+      </c>
+      <c r="C173">
+        <v>154.73848907107759</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>275.49591648516309</v>
+      </c>
+      <c r="B174">
+        <v>138.39797686382559</v>
+      </c>
+      <c r="C174">
+        <v>162.98466185503469</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>276.97292286431178</v>
+      </c>
+      <c r="B175">
+        <v>144.06248644251559</v>
+      </c>
+      <c r="C175">
+        <v>157.69590990257171</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>277.21832551258223</v>
+      </c>
+      <c r="B176">
+        <v>134.52880732393339</v>
+      </c>
+      <c r="C176">
+        <v>166.39711535961189</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>275.00727263110701</v>
+      </c>
+      <c r="B177">
+        <v>130.1729618622854</v>
+      </c>
+      <c r="C177">
+        <v>161.9135571840728</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>275.11633902769199</v>
+      </c>
+      <c r="B178">
+        <v>136.9707998078423</v>
+      </c>
+      <c r="C178">
+        <v>157.49285698088019</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>275</v>
+      </c>
+      <c r="B179">
+        <v>128.03515142334939</v>
+      </c>
+      <c r="C179">
+        <v>166.337007307454</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>273.06592610576661</v>
+      </c>
+      <c r="B180">
+        <v>130.92364186807521</v>
+      </c>
+      <c r="C180">
+        <v>158.24032355881991</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>273.02930245671428</v>
+      </c>
+      <c r="B181">
+        <v>118.1058846967415</v>
+      </c>
+      <c r="C181">
+        <v>172.2556240010758</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>300.6958596322869</v>
+      </c>
+      <c r="B182">
+        <v>176.1135997020105</v>
+      </c>
+      <c r="C182">
+        <v>157.4102919125684</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>300.60272786520079</v>
+      </c>
+      <c r="B183">
+        <v>172.04650534085249</v>
+      </c>
+      <c r="C183">
+        <v>158.47397262642221</v>
+      </c>
+      <c r="D183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>300.60272786520079</v>
+      </c>
+      <c r="B184">
+        <v>173.95401691251629</v>
+      </c>
+      <c r="C184">
+        <v>156.77372228788849</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>299.0551788550066</v>
+      </c>
+      <c r="B185">
+        <v>170.14111789923089</v>
+      </c>
+      <c r="C185">
+        <v>160.60510577189009</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>300.60272786520079</v>
+      </c>
+      <c r="B186">
+        <v>172.66151858477329</v>
+      </c>
+      <c r="C186">
+        <v>159.53056133543819</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>297.00673393039432</v>
+      </c>
+      <c r="B187">
+        <v>180.27756377319949</v>
+      </c>
+      <c r="C187">
+        <v>139.61733416735899</v>
+      </c>
+      <c r="D187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>300.04333020415572</v>
+      </c>
+      <c r="B188">
+        <v>183.88311504866351</v>
+      </c>
+      <c r="C188">
+        <v>150.37619492459569</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>299.81661061388837</v>
+      </c>
+      <c r="B189">
+        <v>169.79988221432899</v>
+      </c>
+      <c r="C189">
+        <v>157.84169284444459</v>
+      </c>
+      <c r="D189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>299.10700426436023</v>
+      </c>
+      <c r="B190">
+        <v>174.63103962354461</v>
+      </c>
+      <c r="C190">
+        <v>151.15885683611131</v>
+      </c>
+      <c r="D190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>300.21658848238218</v>
+      </c>
+      <c r="B191">
+        <v>168.86681142249361</v>
+      </c>
+      <c r="C191">
+        <v>160.87883639559311</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>299.16717734403949</v>
+      </c>
+      <c r="B192">
+        <v>152.46311029229329</v>
+      </c>
+      <c r="C192">
+        <v>172.0116275139562</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>299.48288765804301</v>
+      </c>
+      <c r="B193">
+        <v>166.88319268278639</v>
+      </c>
+      <c r="C193">
+        <v>164.15846003176321</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>300.21658848238218</v>
+      </c>
+      <c r="B194">
+        <v>166.73931749890309</v>
+      </c>
+      <c r="C194">
+        <v>169.72919607421699</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>299.0551788550066</v>
+      </c>
+      <c r="B195">
+        <v>169.0976049505137</v>
+      </c>
+      <c r="C195">
+        <v>160.6486850241856</v>
+      </c>
+      <c r="D195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>299.60307074527788</v>
+      </c>
+      <c r="B196">
+        <v>165.12419568312819</v>
+      </c>
+      <c r="C196">
+        <v>165.27552752903259</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>299.5496619927988</v>
+      </c>
+      <c r="B197">
+        <v>158.927656498169</v>
+      </c>
+      <c r="C197">
+        <v>170.88007490635059</v>
+      </c>
+      <c r="D197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>310.0096772683072</v>
+      </c>
+      <c r="B198">
+        <v>167.6305461424021</v>
+      </c>
+      <c r="C198">
+        <v>171.35343591536181</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
         <v>308.76852171165382</v>
       </c>
-      <c r="B98">
-        <v>158.927656498169</v>
-      </c>
-      <c r="C98">
-        <v>182.1867174082677</v>
-      </c>
-      <c r="D98">
+      <c r="B199">
+        <v>180.36906608396021</v>
+      </c>
+      <c r="C199">
+        <v>158.48343762046559</v>
+      </c>
+      <c r="D199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>307.95129485033829</v>
+      </c>
+      <c r="B200">
+        <v>170.8478855590551</v>
+      </c>
+      <c r="C200">
+        <v>165.8945448168806</v>
+      </c>
+      <c r="D200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>309.7256850827842</v>
+      </c>
+      <c r="B201">
+        <v>165.13025161974409</v>
+      </c>
+      <c r="C201">
+        <v>173.55690709389819</v>
+      </c>
+      <c r="D201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>309.57067044537672</v>
+      </c>
+      <c r="B202">
+        <v>202.56603861457131</v>
+      </c>
+      <c r="C202">
+        <v>143.54441821262159</v>
+      </c>
+      <c r="D202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>308.98867293154939</v>
+      </c>
+      <c r="B203">
+        <v>175.445148123281</v>
+      </c>
+      <c r="C203">
+        <v>166.68833192518309</v>
+      </c>
+      <c r="D203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>308.76852171165382</v>
+      </c>
+      <c r="B204">
+        <v>175.13708916160499</v>
+      </c>
+      <c r="C204">
+        <v>164.1371377842321</v>
+      </c>
+      <c r="D204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>308.56117707838752</v>
+      </c>
+      <c r="B205">
+        <v>178.61970775925039</v>
+      </c>
+      <c r="C205">
+        <v>161.04968177553161</v>
+      </c>
+      <c r="D205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>310.75713990188552</v>
+      </c>
+      <c r="B206">
+        <v>176.13914953808541</v>
+      </c>
+      <c r="C206">
+        <v>166.68833192518309</v>
+      </c>
+      <c r="D206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>309.46728421595708</v>
+      </c>
+      <c r="B207">
+        <v>172.69916039170539</v>
+      </c>
+      <c r="C207">
+        <v>166.67633305301629</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>308.60006480880719</v>
+      </c>
+      <c r="B208">
+        <v>181.39735389470269</v>
+      </c>
+      <c r="C208">
+        <v>161.59517319524119</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>309.71277015970782</v>
+      </c>
+      <c r="B209">
+        <v>181.13530854032851</v>
+      </c>
+      <c r="C209">
+        <v>160.46183346827371</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>307.58738595722679</v>
+      </c>
+      <c r="B210">
+        <v>169.59363195591979</v>
+      </c>
+      <c r="C210">
+        <v>169.72919607421699</v>
+      </c>
+      <c r="D210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>308.36666486505959</v>
+      </c>
+      <c r="B211">
+        <v>172.35138525698019</v>
+      </c>
+      <c r="C211">
+        <v>167.21542991004151</v>
+      </c>
+      <c r="D211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>308.01623333843952</v>
+      </c>
+      <c r="B212">
+        <v>162.4838453508533</v>
+      </c>
+      <c r="C212">
+        <v>177.65415840897171</v>
+      </c>
+      <c r="D212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>309.85480470697883</v>
+      </c>
+      <c r="B213">
+        <v>146.7412689055127</v>
+      </c>
+      <c r="C213">
+        <v>195.45076106272899</v>
+      </c>
+      <c r="D213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>308.56117707838752</v>
+      </c>
+      <c r="B214">
+        <v>167.91962362987829</v>
+      </c>
+      <c r="C214">
+        <v>170.6722004311188</v>
+      </c>
+      <c r="D214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>309.46728421595708</v>
+      </c>
+      <c r="B215">
+        <v>168.5852899869974</v>
+      </c>
+      <c r="C215">
+        <v>170.98830369355679</v>
+      </c>
+      <c r="D215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>308.76852171165382</v>
+      </c>
+      <c r="B216">
+        <v>172.35138525698019</v>
+      </c>
+      <c r="C216">
+        <v>169.28378540191031</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>265.31867631209082</v>
+      </c>
+      <c r="B217">
+        <v>146.73104647619741</v>
+      </c>
+      <c r="C217">
+        <v>149.89329538041389</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>266.1766330841233</v>
+      </c>
+      <c r="B218">
+        <v>151.71684151734769</v>
+      </c>
+      <c r="C218">
+        <v>140.45639892863551</v>
+      </c>
+      <c r="D218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>265.99624057493747</v>
+      </c>
+      <c r="B219">
+        <v>157.86703265723341</v>
+      </c>
+      <c r="C219">
+        <v>132.96616110875729</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>268.37660106648639</v>
+      </c>
+      <c r="B220">
+        <v>155</v>
+      </c>
+      <c r="C220">
+        <v>135.05924625881781</v>
+      </c>
+      <c r="D220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>264.82069405543058</v>
+      </c>
+      <c r="B221">
+        <v>150.96025967121281</v>
+      </c>
+      <c r="C221">
+        <v>138.75518008348371</v>
+      </c>
+      <c r="D221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>263.06843216167158</v>
+      </c>
+      <c r="B222">
+        <v>155.43809056984711</v>
+      </c>
+      <c r="C222">
+        <v>128.15615474880639</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>265.06791582535982</v>
+      </c>
+      <c r="B223">
+        <v>147.73286702694159</v>
+      </c>
+      <c r="C223">
+        <v>140.76931483814221</v>
+      </c>
+      <c r="D223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>264.59402865522122</v>
+      </c>
+      <c r="B224">
+        <v>157.94302770302971</v>
+      </c>
+      <c r="C224">
+        <v>132.25732493892349</v>
+      </c>
+      <c r="D224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>264.20068130116539</v>
+      </c>
+      <c r="B225">
+        <v>142.6359001093343</v>
+      </c>
+      <c r="C225">
+        <v>150.96025967121281</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>265</v>
+      </c>
+      <c r="B226">
+        <v>144.6271067262289</v>
+      </c>
+      <c r="C226">
+        <v>156.08331108738051</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>265.19803920843759</v>
+      </c>
+      <c r="B227">
+        <v>155.9134375222354</v>
+      </c>
+      <c r="C227">
+        <v>137.13132391981051</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>265.31867631209082</v>
+      </c>
+      <c r="B228">
+        <v>149.45233353815519</v>
+      </c>
+      <c r="C228">
+        <v>140.66271716414411</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>264.20068130116539</v>
+      </c>
+      <c r="B229">
+        <v>139.01438774457841</v>
+      </c>
+      <c r="C229">
+        <v>157.28000508646991</v>
+      </c>
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>262.60616900598512</v>
+      </c>
+      <c r="B230">
+        <v>137.56816492197601</v>
+      </c>
+      <c r="C230">
+        <v>154.63828762631849</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>264.00378785161399</v>
+      </c>
+      <c r="B231">
+        <v>144.26711336961031</v>
+      </c>
+      <c r="C231">
+        <v>150.98675438593941</v>
+      </c>
+      <c r="D231">
         <v>3</v>
       </c>
     </row>
